--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 5841-2023</t>
+          <t>A 25764-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44963.56702546297</v>
+        <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,39 +864,127 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Guldlockmossa
+Lönnlav
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 5841-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44963.56702546297</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Vippärt
@@ -904,119 +992,31 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 25764-2025</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>45804.3400462963</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>3</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Guldlockmossa
-Lönnlav
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 19281-2025</t>
+          <t>A 17693-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45769.54100694445</v>
+        <v>45037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>11.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Bergjohannesört
+Vippärt</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 19281-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45769.54100694445</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 1491-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45670.39987268519</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>3.3</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17693-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45037</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Vippärt</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58906-2022</t>
+          <t>A 43531-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44896</v>
+        <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,14 +1557,19 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1592,298 +1597,293 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 24894-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45461.57582175926</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58906-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 43531-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 53515-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45614.60082175926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 53515-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45614.60082175926</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24894-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45461.57582175926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2571,14 +2571,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 36451-2022</t>
+          <t>A 72617-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44804</v>
+        <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 72617-2021</t>
+          <t>A 36451-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44546.54055555556</v>
+        <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,14 +2799,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 23970-2021</t>
+          <t>A 52243-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44335</v>
+        <v>44873.60039351852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 23973-2021</t>
+          <t>A 53549-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44335</v>
+        <v>44879.6300462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52243-2022</t>
+          <t>A 23970-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44873.60039351852</v>
+        <v>44335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 53549-2022</t>
+          <t>A 23973-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44879.6300462963</v>
+        <v>44335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44305</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44460</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44620.36696759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44879.65046296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44840.44130787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4224,14 +4224,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 39171-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4281,14 +4281,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 71252-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>44539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 39171-2022</t>
+          <t>A 57801-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44817</v>
+        <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 71252-2021</t>
+          <t>A 21097-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44539</v>
+        <v>44704.55649305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21097-2022</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44704.55649305556</v>
+        <v>44915</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.4</v>
+        <v>8.4</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44508</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>8.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 57801-2021</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44484</v>
+        <v>44952</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45225</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45030</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>6.1</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44868</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44783</v>
+        <v>45212</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45344</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45264</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5554,13 +5554,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>7.9</v>
+        <v>0.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5597,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>44788</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5654,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5711,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5768,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>44655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5825,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.6</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5882,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5902,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>5.2</v>
+        <v>4.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5939,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45092</v>
+        <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5996,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6053,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6073,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.7</v>
+        <v>5.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6110,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45168</v>
+        <v>44636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6167,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>44307</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6187,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6224,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6244,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6281,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44307</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6301,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6338,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6358,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6395,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6415,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6452,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6529,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6566,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45800</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6586,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6623,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6643,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>8.9</v>
+        <v>0.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6680,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6700,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6737,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6757,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.9</v>
+        <v>4.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6794,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45911</v>
+        <v>44971</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6813,13 +6808,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6856,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6876,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6913,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6970,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44378</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6990,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7027,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45643</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7047,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.2</v>
+        <v>2.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7084,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7104,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7141,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7161,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7198,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45992</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7218,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>12.3</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7255,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>44974</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7275,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7312,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7369,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7389,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7426,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7446,7 +7436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7483,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7503,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7540,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7560,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7597,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44439</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7617,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7654,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7711,14 +7701,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7731,7 +7721,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7768,14 +7758,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7788,7 +7778,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7825,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45030</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7845,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7882,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44952</v>
+        <v>45820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7902,7 +7892,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7939,14 +7929,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45222</v>
+        <v>45820</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7959,7 +7949,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7996,14 +7986,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45820</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8016,7 +8006,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.4</v>
+        <v>7.9</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8053,14 +8043,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8073,7 +8063,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8110,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45994</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8130,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8167,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8187,7 +8177,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8224,14 +8214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8244,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8281,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45911</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8300,8 +8290,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8338,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8358,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>10.2</v>
+        <v>8.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8395,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8415,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8452,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8472,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.9</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8509,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8529,7 +8524,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8566,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8586,7 +8581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8643,7 +8638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.8</v>
+        <v>7.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8680,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8700,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8737,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8794,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8851,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8871,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>6.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8908,14 +8903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8928,7 +8923,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8965,14 +8960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8985,7 +8980,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9022,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9042,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9079,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45132</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9099,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>10.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9136,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9156,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9193,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44965</v>
+        <v>44307</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9213,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9250,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9270,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9307,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9327,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9364,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.5</v>
+        <v>4.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9421,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9441,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9478,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45586</v>
+        <v>44914</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9498,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9535,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9555,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9592,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9612,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9649,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9669,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9706,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9726,7 +9721,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.3</v>
+        <v>10.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9763,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9783,7 +9778,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9820,14 +9815,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9835,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9877,14 +9872,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9892,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9934,14 +9929,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>44903</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9949,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9991,14 +9986,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44974</v>
+        <v>45369</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10010,8 +10005,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10048,14 +10048,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10105,14 +10105,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10162,14 +10162,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10219,14 +10219,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10276,14 +10276,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10333,14 +10333,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45945</v>
+        <v>45167</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10390,14 +10390,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45945</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10410,7 +10410,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>8.800000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10447,14 +10447,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45097</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10504,14 +10504,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44442</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.5</v>
+        <v>2.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10903,14 +10903,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10960,14 +10960,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45006</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11017,14 +11017,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45369</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11036,13 +11036,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>6.6</v>
+        <v>3.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11079,14 +11074,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44952</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11099,7 +11094,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11136,14 +11131,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11156,7 +11151,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11193,14 +11188,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45113</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11213,7 +11208,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11250,14 +11245,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11270,7 +11265,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11307,14 +11302,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11327,7 +11322,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11364,14 +11359,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11384,7 +11379,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11421,14 +11416,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11441,7 +11436,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11478,14 +11473,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45973</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11498,7 +11493,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11535,14 +11530,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11555,7 +11550,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11592,14 +11587,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11612,7 +11607,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11649,14 +11644,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11669,7 +11664,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11706,14 +11701,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44655</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11726,7 +11721,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11763,14 +11758,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45356</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11783,7 +11778,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11820,14 +11815,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11840,7 +11835,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11877,14 +11872,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11897,7 +11892,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11934,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>44965</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11954,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11991,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44389</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12011,7 +12006,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12048,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12068,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12105,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12125,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12162,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44389</v>
+        <v>45945</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12182,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12219,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44389</v>
+        <v>45945</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12239,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12276,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12296,7 +12291,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12333,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45167</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12353,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12390,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45089</v>
+        <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12410,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12447,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45057</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12467,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12504,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45042</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12524,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12561,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12581,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12618,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12638,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12675,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45222</v>
+        <v>44463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12695,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12732,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12752,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.199999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12789,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12809,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>12.1</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12846,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12866,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12903,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45054</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12923,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>8.4</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12960,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12980,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13017,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45973</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13037,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13074,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13094,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13131,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44623</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13151,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13188,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13208,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13245,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45442</v>
+        <v>44974</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13265,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13302,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45442</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13322,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13359,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44788</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13379,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>8.699999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13416,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45198</v>
+        <v>45168</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13473,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45238</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13493,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13530,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13550,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13587,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>44389</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13607,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13644,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13664,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13701,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45126</v>
+        <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13721,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>4.3</v>
+        <v>0.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13758,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13778,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13815,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13835,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13872,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44974</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13892,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13929,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13949,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13986,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44915</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14006,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.4</v>
+        <v>1.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14043,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14063,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14100,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14120,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14157,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44883</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14177,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14214,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14234,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14271,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45007</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14291,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14328,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14348,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14385,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14405,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14442,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14462,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14499,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44873</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14519,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14556,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44307</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14613,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14633,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>10.6</v>
+        <v>2.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14690,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45429</v>
+        <v>45992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.7</v>
+        <v>12.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44463</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44914</v>
+        <v>45994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44636</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45664.47</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>44378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>44971</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15354,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45344</v>
+        <v>44623</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15431,7 +15426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15468,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>44883</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45344</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44728</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>45126</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45036</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16058,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>6</v>
+        <v>1.7</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45664.47</v>
+        <v>44974</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16115,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45750</v>
+        <v>45238</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16204,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45097</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16229,7 +16224,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16266,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16286,7 +16281,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16323,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44903</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16343,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>4.8</v>
+        <v>1.6</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16380,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16400,7 +16395,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16437,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45212</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16457,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16494,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16514,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.9</v>
+        <v>3.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16551,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44655</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16571,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16608,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.7</v>
+        <v>7.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16665,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16722,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45057</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16737,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16779,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45357</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16799,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16836,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44974</v>
+        <v>44868</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16856,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16893,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16913,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16950,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16970,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17007,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17027,7 +17022,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17064,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17084,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17121,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>44389</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17141,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17178,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17198,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17235,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>45586</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17255,7 +17250,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17292,14 +17287,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17312,7 +17307,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17349,14 +17344,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17369,7 +17364,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17406,14 +17401,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44914</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17426,7 +17421,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17463,14 +17458,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17483,7 +17478,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>7.3</v>
+        <v>0.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17520,14 +17515,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17540,7 +17535,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17577,14 +17572,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>44952</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17597,7 +17592,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17634,14 +17629,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17654,7 +17649,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17691,14 +17686,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17711,7 +17706,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17748,14 +17743,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45442</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17768,7 +17763,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17805,14 +17800,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45442</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17825,7 +17820,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17862,14 +17857,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45092</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17882,7 +17877,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17919,14 +17914,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17939,7 +17934,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17976,14 +17971,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45042</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17996,7 +17991,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18033,14 +18028,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18053,7 +18048,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18090,14 +18085,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45264</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18109,8 +18104,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45800</v>
+        <v>45750</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45089</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18489,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45643</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44974</v>
+        <v>44439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18603,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45216.708125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2</v>
+        <v>7.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45820</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45820</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45820</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19230,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>44914</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2.2</v>
+        <v>4.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19971,14 +19971,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>44963.56702546297</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45769.54100694445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45670.39987268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45461.57582175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44896</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45614.60082175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44305</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44460</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44620.36696759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44879.65046296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44840.44130787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45762.65361111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44915</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44915.34159722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45589.53059027778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44952</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45684.61994212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44981.35020833334</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>45357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>45624.28996527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>45030</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>45513.50513888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>45212</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>45344.40953703703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>45359.5290625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>45344</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>45686.46358796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>44788</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44851.67258101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45540.38583333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45884.61957175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45798.43085648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44307</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45798.42491898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45567.39223379629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45803.57804398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45803.57626157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45803.61063657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45800</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45803.59703703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45884.59535879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45551.87788194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44971</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45887.58603009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45720.52783564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45418.43171296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45643</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45664.46502314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45730.61782407408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45728.38061342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44974</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45415.60586805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45610.71511574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45895.38059027777</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45702.50678240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45531.66983796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45531.67395833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44672.70159722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45818.63456018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45639.84203703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45817.4727199074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45820</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45820</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45600.7067824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45908.40037037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44729.45575231482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45911.41943287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45911</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45910.48459490741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45911.37747685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>45915.47594907408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>45915.49236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45614.39129629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>45917.43494212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>45167.63978009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45917.32519675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45036.49178240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45916.38266203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>45790.38826388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45917.44861111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45917.3941550926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45923.64278935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44876.69381944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44307</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45923.90445601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45667.63302083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45924.38940972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45671.67623842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44914</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>45929.34412037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45926.53071759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45839.56862268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45400.66951388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45365.67574074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>45839.55377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45841.36143518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44903</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45369</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45726.39108796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45841.33291666667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45938.7903125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45938.96420138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45167</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45939.76440972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45684.56761574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45684.56788194444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45684.58253472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45792.40715277778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45516.60021990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45120.61326388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45854.64826388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45911.39155092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45854.62063657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45854.60905092592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45854.63576388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45950.56489583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45372.55474537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45455.46270833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45744.59334490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45810.36209490741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45866.67653935185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45866.84422453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45866.8474074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45866.36832175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45866.64443287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45866.61204861111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45684.5937037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45684.59524305556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45667.6443287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44965</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45168.8190625</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45874.63193287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45525.48469907408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45945</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45945</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45958.62399305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45512.45240740741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45057</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45600.71142361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45070.47862268519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45964.48523148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45412.71053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44858.47505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45883.64910879629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45971.33905092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45973</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45882.38126157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45973.59908564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45884.6134375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44974</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45974.65145833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45755.61197916666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45168</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>46020.48857638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45884.60351851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44389</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>46020.48369212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45978.45096064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45195.56408564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45221.58049768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44613.3828125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45693.39619212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45594.32021990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44960.6078125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45378.69398148148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45988.68052083333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45992.62403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>46035.37334490741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>46035.37927083333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45992.62133101852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44641.64945601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45992.62931712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45992.62770833333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45371.58719907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45420.69327546296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>46041.4453587963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45664.47</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>44378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>46041.57758101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>46000.57814814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>46000.58282407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44623</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45664.46601851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>44883</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45230.49935185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>46050.39023148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44386.50672453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45126</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>46041.48054398148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44939.32333333333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44939.33954861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>46010.54299768519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45483.66359953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>46057.71314814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44974</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45238</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>45097</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44929.46462962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>45684.57601851852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>46058.3778125</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>46058.38688657407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>45512.44171296297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>46058.38006944444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45513.42944444445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>45568.55829861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45568.56689814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44868</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45734.61987268519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45386.75064814815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44389</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45614.3945949074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45586</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45126.51414351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45238.37284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45022.71006944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45614.39809027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45614.40048611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44952</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44551.39665509259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44736.31748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45442</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45442</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45092</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45337.69141203703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45042</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45264</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45734.61699074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45750</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45089</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45453.33143518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45614.36040509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45386.7578125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45216.708125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45365.68392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45030.83834490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45030.84126157407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45664.47153935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45777.32079861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45783.49379629629</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45783.48696759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45783.51045138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45386.73177083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45473.34694444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45719.57890046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45712.41157407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45734.62342592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45720.53015046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45720.53283564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44914</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45719.57722222222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45726.33466435185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45790.39219907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45713.37015046296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45719.68414351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45792.3609375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45797.51908564815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>44963.56702546297</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45769.54100694445</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45670.39987268519</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45461.57582175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44896</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45614.60082175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44335</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44335</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44305</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44460</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44620.36696759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44879.65046296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44840.44130787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>44873</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>45762.65361111111</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44783</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44915</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>44915.34159722222</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>45589.53059027778</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4858,7 +4858,7 @@
         <v>44952</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4915,7 +4915,7 @@
         <v>45684.61994212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4972,7 +4972,7 @@
         <v>44981.35020833334</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5029,7 +5029,7 @@
         <v>45357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5086,7 +5086,7 @@
         <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5143,7 +5143,7 @@
         <v>45624.28996527778</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5200,7 +5200,7 @@
         <v>45030</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5257,7 +5257,7 @@
         <v>45513.50513888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5314,7 +5314,7 @@
         <v>45212</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         <v>45344.40953703703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5428,7 +5428,7 @@
         <v>45359.5290625</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5485,7 +5485,7 @@
         <v>45344</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5542,7 +5542,7 @@
         <v>45686.46358796296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5599,7 +5599,7 @@
         <v>44788</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5656,7 +5656,7 @@
         <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5713,7 +5713,7 @@
         <v>44851.67258101852</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5770,7 +5770,7 @@
         <v>44655</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5827,7 +5827,7 @@
         <v>45007</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5884,7 +5884,7 @@
         <v>45540.38583333333</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5941,7 +5941,7 @@
         <v>44974</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         <v>45884.61957175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>45798.43085648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>44636</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>44307</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>45798.42491898148</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>45567.39223379629</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>45803.57804398148</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6397,7 +6397,7 @@
         <v>45803.57626157408</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6454,7 +6454,7 @@
         <v>45222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6511,7 +6511,7 @@
         <v>45803.61063657407</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6568,7 +6568,7 @@
         <v>45800</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6625,7 +6625,7 @@
         <v>45803.59703703703</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6682,7 +6682,7 @@
         <v>45884.59535879629</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6739,7 +6739,7 @@
         <v>45551.87788194444</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6796,7 +6796,7 @@
         <v>44971</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6853,7 +6853,7 @@
         <v>45887.58603009259</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6910,7 +6910,7 @@
         <v>45720.52783564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6967,7 +6967,7 @@
         <v>45418.43171296296</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7024,7 +7024,7 @@
         <v>45643</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7081,7 +7081,7 @@
         <v>45664.46502314815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7138,7 +7138,7 @@
         <v>45730.61782407408</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7195,7 +7195,7 @@
         <v>45728.38061342593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7252,7 +7252,7 @@
         <v>44974</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7309,7 +7309,7 @@
         <v>45415.60586805556</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7366,7 +7366,7 @@
         <v>45610.71511574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7423,7 +7423,7 @@
         <v>45895.38059027777</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7480,7 +7480,7 @@
         <v>45702.50678240741</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         <v>45531.66983796296</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7594,7 +7594,7 @@
         <v>45531.67395833333</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7651,7 +7651,7 @@
         <v>44672.70159722222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7708,7 +7708,7 @@
         <v>45818.63456018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7765,7 +7765,7 @@
         <v>45639.84203703704</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7822,7 +7822,7 @@
         <v>45817.4727199074</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7879,7 +7879,7 @@
         <v>45820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7936,7 +7936,7 @@
         <v>45820</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7993,7 +7993,7 @@
         <v>45820</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8050,7 +8050,7 @@
         <v>45600.7067824074</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8107,7 +8107,7 @@
         <v>45908.40037037037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8164,7 +8164,7 @@
         <v>44729.45575231482</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8221,7 +8221,7 @@
         <v>45911.41943287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8278,7 +8278,7 @@
         <v>45911</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8340,7 +8340,7 @@
         <v>45910.48459490741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8397,7 +8397,7 @@
         <v>45911.37747685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8454,7 +8454,7 @@
         <v>45915.47594907408</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8511,7 +8511,7 @@
         <v>45915.49236111111</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8568,7 +8568,7 @@
         <v>45614.39129629629</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8625,7 +8625,7 @@
         <v>45917.43494212963</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8682,7 +8682,7 @@
         <v>45167.63978009259</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8739,7 +8739,7 @@
         <v>45917.32519675926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8796,7 +8796,7 @@
         <v>45036.49178240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8853,7 +8853,7 @@
         <v>45916.38266203704</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8910,7 +8910,7 @@
         <v>45790.38826388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45917.44861111111</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9024,7 +9024,7 @@
         <v>45917.3941550926</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9081,7 +9081,7 @@
         <v>45923.64278935185</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9138,7 +9138,7 @@
         <v>44876.69381944444</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9195,7 +9195,7 @@
         <v>44307</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>45923.90445601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9309,7 +9309,7 @@
         <v>45667.63302083333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9366,7 +9366,7 @@
         <v>45924.38940972222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45671.67623842593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9480,7 +9480,7 @@
         <v>44914</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9537,7 +9537,7 @@
         <v>45929.34412037037</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9594,7 +9594,7 @@
         <v>45926.53071759259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9651,7 +9651,7 @@
         <v>45839.56862268518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9708,7 +9708,7 @@
         <v>45400.66951388889</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9765,7 +9765,7 @@
         <v>45365.67574074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9822,7 +9822,7 @@
         <v>45839.55377314815</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9879,7 +9879,7 @@
         <v>45841.36143518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9936,7 +9936,7 @@
         <v>44903</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9993,7 +9993,7 @@
         <v>45369</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10055,7 +10055,7 @@
         <v>45726.39108796296</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10112,7 +10112,7 @@
         <v>45841.33291666667</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10169,7 +10169,7 @@
         <v>45356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10226,7 +10226,7 @@
         <v>45938.7903125</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45938.96420138889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45167</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>45939.76440972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10454,7 +10454,7 @@
         <v>45684.56761574074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10511,7 +10511,7 @@
         <v>45684.56788194444</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10568,7 +10568,7 @@
         <v>45684.58253472222</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10625,7 +10625,7 @@
         <v>45792.40715277778</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10682,7 +10682,7 @@
         <v>45516.60021990741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10739,7 +10739,7 @@
         <v>45120.61326388889</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10796,7 +10796,7 @@
         <v>45854.64826388889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>45911.39155092592</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>45854.62063657407</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>45854.60905092592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45854.63576388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45950.56489583333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>45372.55474537037</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>45455.46270833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>45744.59334490741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>45810.36209490741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>45866.67653935185</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>45866.84422453704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>45866.8474074074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>45866.36832175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>45866.64443287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>45866.61204861111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11708,7 +11708,7 @@
         <v>45684.5937037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11765,7 +11765,7 @@
         <v>45684.59524305556</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11822,7 +11822,7 @@
         <v>45113</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11879,7 +11879,7 @@
         <v>45667.6443287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11936,7 +11936,7 @@
         <v>44965</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11993,7 +11993,7 @@
         <v>45168.8190625</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12050,7 +12050,7 @@
         <v>45874.63193287037</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12107,7 +12107,7 @@
         <v>45525.48469907408</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12164,7 +12164,7 @@
         <v>45945</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12221,7 +12221,7 @@
         <v>45945</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12278,7 +12278,7 @@
         <v>45958.62399305555</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12335,7 +12335,7 @@
         <v>45512.45240740741</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12392,7 +12392,7 @@
         <v>45198</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12449,7 +12449,7 @@
         <v>45057</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12506,7 +12506,7 @@
         <v>45600.71142361111</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12563,7 +12563,7 @@
         <v>45070.47862268519</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12620,7 +12620,7 @@
         <v>45964.48523148148</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12677,7 +12677,7 @@
         <v>44463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12734,7 +12734,7 @@
         <v>45412.71053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12791,7 +12791,7 @@
         <v>44858.47505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45225</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>45883.64910879629</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>45971.33905092593</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45973</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45882.38126157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13133,7 +13133,7 @@
         <v>45973.59908564815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13190,7 +13190,7 @@
         <v>45884.6134375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13247,7 +13247,7 @@
         <v>44974</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13304,7 +13304,7 @@
         <v>45974.65145833333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13361,7 +13361,7 @@
         <v>45755.61197916666</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13418,7 +13418,7 @@
         <v>45168</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13475,7 +13475,7 @@
         <v>46020.48857638889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13532,7 +13532,7 @@
         <v>45884.60351851852</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
         <v>44389</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13646,7 +13646,7 @@
         <v>46020.48369212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13703,7 +13703,7 @@
         <v>44389</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13760,7 +13760,7 @@
         <v>45978.45096064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13817,7 +13817,7 @@
         <v>45006</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45195.56408564815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45221.58049768519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13988,7 +13988,7 @@
         <v>44613.3828125</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14045,7 +14045,7 @@
         <v>45693.39619212963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14102,7 +14102,7 @@
         <v>45594.32021990741</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14159,7 +14159,7 @@
         <v>44960.6078125</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14216,7 +14216,7 @@
         <v>45378.69398148148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14273,7 +14273,7 @@
         <v>45988.68052083333</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14330,7 +14330,7 @@
         <v>45992.62403935185</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14387,7 +14387,7 @@
         <v>45344</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14444,7 +14444,7 @@
         <v>46035.37334490741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14501,7 +14501,7 @@
         <v>46035.37927083333</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14558,7 +14558,7 @@
         <v>45992.62133101852</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14615,7 +14615,7 @@
         <v>44641.64945601852</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14672,7 +14672,7 @@
         <v>45992.62931712963</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14729,7 +14729,7 @@
         <v>45992</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14786,7 +14786,7 @@
         <v>45992.62770833333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14843,7 +14843,7 @@
         <v>45371.58719907407</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14900,7 +14900,7 @@
         <v>45420.69327546296</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14957,7 +14957,7 @@
         <v>45994</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15014,7 +15014,7 @@
         <v>46041.4453587963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15071,7 +15071,7 @@
         <v>45664.47</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15128,7 +15128,7 @@
         <v>44378</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15185,7 +15185,7 @@
         <v>46041.57758101852</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15242,7 +15242,7 @@
         <v>46000.57814814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15299,7 +15299,7 @@
         <v>46000.58282407407</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15356,7 +15356,7 @@
         <v>44623</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15413,7 +15413,7 @@
         <v>45664.46601851852</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15470,7 +15470,7 @@
         <v>44883</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15527,7 +15527,7 @@
         <v>45230.49935185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15584,7 +15584,7 @@
         <v>46050.39023148148</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15641,7 +15641,7 @@
         <v>44386.50672453704</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15698,7 +15698,7 @@
         <v>45126</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15755,7 +15755,7 @@
         <v>46041.48054398148</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15812,7 +15812,7 @@
         <v>44939.32333333333</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15869,7 +15869,7 @@
         <v>44939.33954861111</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15926,7 +15926,7 @@
         <v>46010.54299768519</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15983,7 +15983,7 @@
         <v>45483.66359953704</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16040,7 +16040,7 @@
         <v>46057.71314814815</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16097,7 +16097,7 @@
         <v>44974</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>45238</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16211,7 +16211,7 @@
         <v>45097</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16268,7 +16268,7 @@
         <v>44929.46462962963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16325,7 +16325,7 @@
         <v>45684.57601851852</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16382,7 +16382,7 @@
         <v>46058.3778125</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16439,7 +16439,7 @@
         <v>46058.38688657407</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16496,7 +16496,7 @@
         <v>45512.44171296297</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16553,7 +16553,7 @@
         <v>46058.38006944444</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16610,7 +16610,7 @@
         <v>44442</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16667,7 +16667,7 @@
         <v>45513.42944444445</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16724,7 +16724,7 @@
         <v>45568.55829861111</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16781,7 +16781,7 @@
         <v>45568.56689814815</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16838,7 +16838,7 @@
         <v>44868</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16895,7 +16895,7 @@
         <v>45734.61987268519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16952,7 +16952,7 @@
         <v>45132</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17009,7 +17009,7 @@
         <v>45222</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17066,7 +17066,7 @@
         <v>45386.75064814815</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17123,7 +17123,7 @@
         <v>44389</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17180,7 +17180,7 @@
         <v>45614.3945949074</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17237,7 +17237,7 @@
         <v>45586</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17294,7 +17294,7 @@
         <v>45126.51414351852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17351,7 +17351,7 @@
         <v>45238.37284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>45022.71006944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>45614.39809027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>45614.40048611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44952</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17636,7 +17636,7 @@
         <v>44551.39665509259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17693,7 +17693,7 @@
         <v>44736.31748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17750,7 +17750,7 @@
         <v>45442</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17807,7 +17807,7 @@
         <v>45442</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17864,7 +17864,7 @@
         <v>45092</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>45337.69141203703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>45042</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18035,7 +18035,7 @@
         <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18092,7 +18092,7 @@
         <v>45264</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>45734.61699074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>45750</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>45089</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>45453.33143518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>45614.36040509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>45386.7578125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>45216.708125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>45365.68392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>45030.83834490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>45030.84126157407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>45664.47153935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>45777.32079861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>45783.49379629629</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>45783.48696759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>45783.51045138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>45386.73177083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>45473.34694444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>45719.57890046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>45712.41157407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>45734.62342592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>45720.53015046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>45720.53283564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44914</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>45719.57722222222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>45726.33466435185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>45790.39219907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>45713.37015046296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>45719.68414351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>45792.3609375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>45797.51908564815</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25764-2025</t>
+          <t>A 5841-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45804.3400462963</v>
+        <v>44963.56702546297</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -888,15 +888,191 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Vippärt
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 44523-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skirmossa
+Dunmossa
+Skogshakmossa
+Trind spretmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25764-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45804.3400462963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ask
 Guldlockmossa
@@ -904,207 +1080,31 @@
 Rostfläck</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 5841-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44963.56702546297</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Vippärt
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44523-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skirmossa
-Dunmossa
-Skogshakmossa
-Trind spretmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17693-2023</t>
+          <t>A 19281-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45037</v>
+        <v>45769.54100694445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.3</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1491-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45670.39987268519</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 17693-2023</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>2</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Bergjohannesört
 Vippärt</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 19281-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45769.54100694445</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 1491-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45670.39987268519</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43531-2025</t>
+          <t>A 58906-2022</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45911</v>
+        <v>44896</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,19 +1557,14 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1597,293 +1592,298 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43531-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 53515-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45614.60082175926</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 24894-2024</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45461.57582175926</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>2.1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>1</v>
       </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Klasefibbla</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 58906-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 53515-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45614.60082175926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2799,14 +2799,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 52243-2022</t>
+          <t>A 23970-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44873.60039351852</v>
+        <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2819,7 +2819,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2856,14 +2856,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 53549-2022</t>
+          <t>A 23973-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44879.6300462963</v>
+        <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2913,14 +2913,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 23970-2021</t>
+          <t>A 52243-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44335</v>
+        <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 23973-2021</t>
+          <t>A 53549-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44335</v>
+        <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44305</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44460</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44657</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44620.36696759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44879.65046296296</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44840.44130787037</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 21097-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44508</v>
+        <v>44704.55649305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57801-2021</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44484</v>
+        <v>44508</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 21097-2022</t>
+          <t>A 57801-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44704.55649305556</v>
+        <v>44484</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44873</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44783</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44915</v>
+        <v>45092</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.4</v>
+        <v>2.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>8.5</v>
+        <v>2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>44307</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44952</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44378</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>44439</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45357</v>
+        <v>45030</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45054</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45030</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45212</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45132</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45344</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45820</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44788</v>
+        <v>44965</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44728</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45820</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44655</v>
+        <v>45820</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.9</v>
+        <v>7.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45007</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44974</v>
+        <v>45586</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5.8</v>
+        <v>0.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44636</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44307</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45225</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>44974</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45222</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45800</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>44442</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.3</v>
+        <v>7.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44971</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45643</v>
+        <v>45006</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45369</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7150,8 +7150,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7193,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>44952</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7213,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7250,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44974</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,7 +7270,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7307,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,7 +7327,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7359,14 +7364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,7 +7384,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7416,14 +7421,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7436,7 +7441,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.2</v>
+        <v>3.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7473,14 +7478,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,7 +7498,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7530,14 +7535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,7 +7555,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7587,14 +7592,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7607,7 +7612,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7644,14 +7649,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7669,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7758,14 +7763,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45820</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45820</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45820</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8006,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>7.9</v>
+        <v>1.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8063,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.5</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8125,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8214,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45911</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8290,13 +8295,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>8.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>8.9</v>
+        <v>0.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8397,7 +8397,7 @@
         <v>45911.37747685185</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8447,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>45911</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8523,8 +8523,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8561,14 +8566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45356</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8581,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8618,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8643,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>7.2</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8675,14 +8680,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8700,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8732,14 +8737,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8752,7 +8757,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8789,14 +8794,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8809,7 +8814,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.8</v>
+        <v>6.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8846,14 +8851,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8866,7 +8871,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.2</v>
+        <v>3.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8903,14 +8908,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8923,7 +8928,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8960,14 +8965,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8980,7 +8985,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9017,14 +9022,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>44389</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9042,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9074,14 +9079,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9099,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>10.2</v>
+        <v>7.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9131,14 +9136,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9156,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9188,14 +9193,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44307</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9213,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.4</v>
+        <v>5.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9245,14 +9250,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9302,14 +9307,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9327,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9364,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>44389</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9379,7 +9384,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9421,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>44389</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9441,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9478,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44914</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9493,7 +9498,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9530,14 +9535,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9550,7 +9555,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9587,14 +9592,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9607,7 +9612,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9644,14 +9649,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9664,7 +9669,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>6.1</v>
+        <v>10.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9701,14 +9706,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45089</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9721,7 +9726,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>10.6</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9758,14 +9763,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9783,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.8</v>
+        <v>5.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9815,14 +9820,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9835,7 +9840,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9872,14 +9877,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9892,7 +9897,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9929,14 +9934,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44903</v>
+        <v>45216.708125</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,7 +9954,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>4.8</v>
+        <v>2.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9986,14 +9991,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45369</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10005,13 +10010,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>6.6</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10048,14 +10048,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10068,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10105,14 +10105,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10162,14 +10162,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45356</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10182,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10219,14 +10219,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10239,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10276,14 +10276,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10333,14 +10333,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45167</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10353,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10397,7 +10397,7 @@
         <v>45939.76440972222</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10447,14 +10447,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10467,7 +10467,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10504,14 +10504,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10524,7 +10524,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>12.1</v>
+        <v>2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>2.6</v>
+        <v>6.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>44868</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>4.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45264</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10865,8 +10865,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>7.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10903,14 +10908,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10923,7 +10928,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.2</v>
+        <v>2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10960,14 +10965,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10980,7 +10985,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11017,14 +11022,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11037,7 +11042,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11074,14 +11079,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11094,7 +11099,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11131,14 +11136,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11151,7 +11156,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11188,14 +11193,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11208,7 +11213,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11245,14 +11250,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45168</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11265,7 +11270,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11302,14 +11307,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45945</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11322,7 +11327,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11359,14 +11364,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45945</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11379,7 +11384,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11416,14 +11421,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>44952</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11436,7 +11441,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11473,14 +11478,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45222</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11493,7 +11498,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11530,14 +11535,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11587,14 +11592,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11607,7 +11612,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11644,14 +11649,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11664,7 +11669,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11701,14 +11706,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11721,7 +11726,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11758,14 +11763,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45097</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11778,7 +11783,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11815,14 +11820,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45113</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11835,7 +11840,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11872,14 +11877,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11892,7 +11897,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11929,14 +11934,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44965</v>
+        <v>45973</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11949,7 +11954,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11986,14 +11991,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>45113</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12006,7 +12011,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12048,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12068,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12105,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12125,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12162,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45945</v>
+        <v>44655</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12182,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12219,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45945</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12239,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12276,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12296,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12333,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12348,7 +12353,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12390,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45198</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12410,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12447,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45057</v>
+        <v>45167</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12467,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12504,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12524,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12561,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12581,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12618,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12638,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12675,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44463</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12695,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12732,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12752,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>12.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12789,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>45042</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12809,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>3.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12846,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45225</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12866,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12903,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12923,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12960,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12980,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13017,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45973</v>
+        <v>45222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13037,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>8</v>
+        <v>3.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13074,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13094,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13131,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13151,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.2</v>
+        <v>12.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13188,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13208,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13245,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44974</v>
+        <v>45054</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13265,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13302,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13322,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13359,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45994</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13379,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13416,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45168</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13436,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13473,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13493,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13530,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13550,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13587,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44389</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13607,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13644,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13664,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13701,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44389</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13721,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13758,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>44623</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13778,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13815,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45006</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13835,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13872,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>45442</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13924,14 +13929,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45442</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13949,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13986,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>44788</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14006,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14043,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45198</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14063,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14100,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45238</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14120,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14157,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14177,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14214,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14234,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14271,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14291,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14328,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14348,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14385,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45344</v>
+        <v>45126</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14405,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14442,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14462,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14499,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14519,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14556,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14576,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14613,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>44974</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14633,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14670,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14690,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45992</v>
+        <v>44915</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>12.3</v>
+        <v>8.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14804,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>0.5</v>
+        <v>8.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45994</v>
+        <v>44883</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15012,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15032,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45664.47</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44378</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45007</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44623</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15374,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>44883</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>44873</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>4.6</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45126</v>
+        <v>44307</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>4.3</v>
+        <v>0.8</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15768,7 +15773,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>3.2</v>
+        <v>10.6</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45429</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>44463</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15944,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.7</v>
+        <v>2.5</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44974</v>
+        <v>44914</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16110,7 +16115,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45238</v>
+        <v>44636</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16167,7 +16172,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16204,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45097</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16224,7 +16229,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16261,14 +16266,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16281,7 +16286,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16318,14 +16323,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16338,7 +16343,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16375,14 +16380,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>44971</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16395,7 +16400,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16432,14 +16437,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16452,7 +16457,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16489,14 +16494,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45344</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16509,7 +16514,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16546,14 +16551,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16571,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16603,14 +16608,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44442</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16623,7 +16628,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>7.5</v>
+        <v>1.9</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16660,14 +16665,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16680,7 +16685,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16717,14 +16722,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45344</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16737,7 +16742,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16774,14 +16779,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>44728</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16794,7 +16799,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16831,14 +16836,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44868</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16851,7 +16856,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16888,14 +16893,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16908,7 +16913,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16945,14 +16950,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45132</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16965,7 +16970,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17002,14 +17007,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45222</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17022,7 +17027,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17059,14 +17064,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17079,7 +17084,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17116,14 +17121,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44389</v>
+        <v>45036</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17136,7 +17141,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17173,14 +17178,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17193,7 +17198,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17230,14 +17235,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45586</v>
+        <v>45664.47</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17250,7 +17255,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17287,14 +17292,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45750</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17307,7 +17312,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17344,14 +17349,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17364,7 +17369,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17401,14 +17406,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17421,7 +17426,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17458,14 +17463,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>44903</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17478,7 +17483,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17515,14 +17520,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17535,7 +17540,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17572,14 +17577,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44952</v>
+        <v>45212</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17592,7 +17597,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17629,14 +17634,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17649,7 +17654,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17686,14 +17691,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>44655</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17706,7 +17711,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17743,14 +17748,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45442</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17763,7 +17768,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17800,14 +17805,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45442</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17820,7 +17825,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17857,14 +17862,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45092</v>
+        <v>45057</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17877,7 +17882,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17914,14 +17919,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45357</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17934,7 +17939,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17971,14 +17976,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45042</v>
+        <v>44974</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17991,7 +17996,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18028,14 +18033,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44655</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18048,7 +18053,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18085,14 +18090,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45264</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18104,13 +18109,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>7.9</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45750</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45089</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45036</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18489,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44439</v>
+        <v>44914</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18603,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45429</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.7</v>
+        <v>7.3</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.7</v>
+        <v>3.8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.8</v>
+        <v>7.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.6</v>
+        <v>4.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19230,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.4</v>
+        <v>5.8</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45800</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44914</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45643</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>44974</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19971,14 +19971,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 5841-2023</t>
+          <t>A 25764-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44963.56702546297</v>
+        <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,39 +864,127 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Guldlockmossa
+Lönnlav
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 5841-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44963.56702546297</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Vippärt
@@ -904,87 +992,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 44523-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44840</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skirmossa
 Dunmossa
@@ -992,119 +1080,31 @@
 Trind spretmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 25764-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45804.3400462963</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Guldlockmossa
-Lönnlav
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 19281-2025</t>
+          <t>A 1491-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45769.54100694445</v>
+        <v>45670.39987268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17693-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Bergjohannesört
+Vippärt</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 19281-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45769.54100694445</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Skogsklocka
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 1491-2025</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45670.39987268519</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 17693-2023</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45037</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Vippärt</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 58906-2022</t>
+          <t>A 43531-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>44896</v>
+        <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,14 +1557,19 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1592,298 +1597,293 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 24894-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45461.57582175926</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Klasefibbla</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 58906-2022</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>22</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 43531-2025</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>8</v>
-      </c>
-      <c r="H14" t="n">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 53515-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45614.60082175926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Z14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 53515-2024</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45614.60082175926</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24894-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45461.57582175926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2913,14 +2913,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 52243-2022</t>
+          <t>A 53549-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44873.60039351852</v>
+        <v>44879.6300462963</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 53549-2022</t>
+          <t>A 52243-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44879.6300462963</v>
+        <v>44873.60039351852</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44305</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44305</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>44264</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44460</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44343</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 15025-2022</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44657</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 15025-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>44657</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3889,7 +3889,7 @@
         <v>44677</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44438</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44676</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44539</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44508</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4459,7 +4459,7 @@
         <v>44484</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44783</v>
+        <v>44873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45092</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45036</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44307</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>45386.7578125</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44378</v>
+        <v>44783</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>44439</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45030</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>44915</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>8.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>44952</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45429</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45132</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45820</v>
+        <v>45216.708125</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44965</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45054</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45820</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45820</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>7.9</v>
+        <v>1.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45586</v>
+        <v>45357</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45030</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45212</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45225</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44974</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>6.1</v>
+        <v>0.5</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45344</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44442</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>7.5</v>
+        <v>0.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.2</v>
+        <v>2.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>44788</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>44728</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>5.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45006</v>
+        <v>45911</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7036,8 +7036,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7079,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7099,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7136,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45369</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7150,13 +7155,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>6.6</v>
+        <v>8.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44952</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7250,14 +7250,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7364,14 +7364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7421,14 +7421,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>44655</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.5</v>
+        <v>0.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7478,14 +7478,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45007</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7535,14 +7535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7592,14 +7592,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>44974</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7649,14 +7649,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.2</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>44914</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>44636</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>44307</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.7</v>
+        <v>7.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>7.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>8.9</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>7.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45911</v>
+        <v>45222</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8523,13 +8523,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8566,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45356</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8586,7 +8581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.2</v>
+        <v>6.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8643,7 +8638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8680,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8700,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8737,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8794,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8814,7 +8809,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.2</v>
+        <v>4.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8851,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8871,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8908,14 +8903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>44971</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8928,7 +8923,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8965,14 +8960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8985,7 +8980,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9022,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44389</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9042,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9079,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9099,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>7.2</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9136,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9156,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9193,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9213,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9250,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9270,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9307,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9327,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9364,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44389</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.5</v>
+        <v>3.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9421,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44389</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9441,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9478,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45800</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9498,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9535,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9555,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9592,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9612,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>10.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9649,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9669,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.2</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9706,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45089</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9726,7 +9721,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9763,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9783,7 +9778,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9820,14 +9815,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9835,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9877,14 +9872,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9892,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9934,14 +9929,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45643</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9949,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9991,14 +9986,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10006,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10048,14 +10043,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10063,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10105,14 +10100,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>44974</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10120,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10162,14 +10157,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10177,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10219,14 +10214,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10239,7 +10234,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10276,14 +10271,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10291,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10333,14 +10328,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10348,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10390,14 +10385,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10410,7 +10405,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10447,14 +10442,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10467,7 +10462,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10504,14 +10499,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10524,7 +10519,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10556,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10576,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10613,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45820</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10633,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10670,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44868</v>
+        <v>45820</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10690,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10727,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45820</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10747,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.7</v>
+        <v>7.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10784,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10804,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10841,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45264</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10865,13 +10860,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G174" t="n">
-        <v>7.9</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10908,14 +10898,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10928,7 +10918,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10965,14 +10955,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10985,7 +10975,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11022,14 +11012,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11042,7 +11032,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.3</v>
+        <v>1.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11079,14 +11069,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>44307</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11099,7 +11089,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11136,14 +11126,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11156,7 +11146,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11193,14 +11183,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11213,7 +11203,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11250,14 +11240,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45168</v>
+        <v>44914</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11270,7 +11260,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11307,14 +11297,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45945</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11327,7 +11317,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11364,14 +11354,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45945</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11384,7 +11374,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11421,14 +11411,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44952</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11441,7 +11431,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11478,14 +11468,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45222</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11498,7 +11488,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.8</v>
+        <v>10.6</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11535,14 +11525,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11555,7 +11545,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11592,14 +11582,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11612,7 +11602,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11649,14 +11639,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11669,7 +11659,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11706,14 +11696,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11726,7 +11716,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11763,14 +11753,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45097</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11783,7 +11773,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11820,14 +11810,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>44903</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11840,7 +11830,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>4.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11877,14 +11867,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45369</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11896,8 +11886,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>6.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11934,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45973</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11954,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11991,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45113</v>
+        <v>45356</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12011,7 +12006,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12048,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45167</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12068,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12105,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12125,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12162,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44655</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12182,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12219,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12239,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12276,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12333,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12353,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12390,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12410,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12447,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45167</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12467,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.5</v>
+        <v>12.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12504,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12524,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12561,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12581,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12618,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12638,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12675,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12695,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12732,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45992</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12752,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12789,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45042</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12809,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12846,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12866,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12903,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12923,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12960,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12980,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13017,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45222</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13037,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13074,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13094,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>8.199999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13131,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13151,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>12.1</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13188,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13208,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13245,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45054</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13265,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>8.4</v>
+        <v>1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13302,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13322,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13359,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45994</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13379,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13416,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45113</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13436,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13473,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>44965</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13493,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13530,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13550,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13587,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13607,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13644,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45225</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13664,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13701,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13721,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13758,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44623</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13778,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13815,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13835,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>4.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13872,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45442</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13892,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13929,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45442</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13949,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13986,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44788</v>
+        <v>45198</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14006,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>8.699999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14043,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45198</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14063,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14100,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45238</v>
+        <v>45057</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14120,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14157,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14177,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14214,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14234,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14271,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>44463</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14291,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14328,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14348,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14385,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45126</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14405,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>4.3</v>
+        <v>1.9</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14442,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14462,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14499,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45945</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14519,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14556,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45945</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14576,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14613,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>44974</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14633,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>44974</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14690,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44915</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>45168</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>44389</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44883</v>
+        <v>44389</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45006</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45973</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45007</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15431,7 +15426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15468,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>44873</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44307</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45344</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>10.6</v>
+        <v>1.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45429</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44463</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16058,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44914</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16115,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44636</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16204,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16229,7 +16224,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16266,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16323,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45992</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16343,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.7</v>
+        <v>12.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16380,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44971</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16400,7 +16395,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16437,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45994</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16457,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16494,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45344</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16514,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16551,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45664.47</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16571,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16608,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>44378</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16665,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16722,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45344</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16779,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44728</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16799,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16836,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>44623</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16856,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16893,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16913,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>5.9</v>
+        <v>1.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16950,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>44883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16970,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17007,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17027,7 +17022,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>1.8</v>
+        <v>3.8</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17064,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17084,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17121,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45036</v>
+        <v>45126</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17141,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.3</v>
+        <v>4.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17178,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17198,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>6</v>
+        <v>1.4</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17235,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45664.47</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17255,7 +17250,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>5.4</v>
+        <v>1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17292,14 +17287,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45750</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17312,7 +17307,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17349,14 +17344,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17369,7 +17364,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17406,14 +17401,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>44974</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17426,7 +17421,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17463,14 +17458,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>44903</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17483,7 +17478,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>4.8</v>
+        <v>3.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17520,14 +17515,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45238</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17577,14 +17572,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45212</v>
+        <v>45097</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17597,7 +17592,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17634,14 +17629,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17654,7 +17649,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17691,14 +17686,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44655</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17711,7 +17706,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17748,14 +17743,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17768,7 +17763,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>4.7</v>
+        <v>3.1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17805,14 +17800,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17825,7 +17820,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17862,14 +17857,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45057</v>
+        <v>44442</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17882,7 +17877,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1.3</v>
+        <v>7.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17919,14 +17914,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45357</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17939,7 +17934,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17976,14 +17971,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>44974</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17996,7 +17991,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18033,14 +18028,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18053,7 +18048,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18090,14 +18085,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18110,7 +18105,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18142,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18162,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18199,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18219,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18256,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18276,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18313,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18333,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18370,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>44868</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18390,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18427,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18452,7 +18447,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18489,14 +18484,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18504,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18541,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44914</v>
+        <v>45132</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18566,7 +18561,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18603,14 +18598,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45222</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18618,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>7.3</v>
+        <v>3.1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18655,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18675,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18712,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>44389</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18732,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18769,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18794,7 +18789,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18826,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45586</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18846,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18883,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18903,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18940,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18960,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +18997,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19017,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19054,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19074,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>4.8</v>
+        <v>0.3</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19111,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19131,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19168,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>44952</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19188,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19230,14 +19225,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19245,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19282,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19302,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2.4</v>
+        <v>0.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19339,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45800</v>
+        <v>45442</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19359,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19396,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45442</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19416,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19453,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45092</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19473,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19510,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19530,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19567,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45042</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19587,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19624,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45643</v>
+        <v>44655</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19644,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19681,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>44974</v>
+        <v>45264</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19705,8 +19700,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G329" t="n">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45750</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>45089</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19971,14 +19971,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25764-2025</t>
+          <t>A 5841-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45804.3400462963</v>
+        <v>44963.56702546297</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -888,15 +888,191 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Vippärt
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 44523-2022</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44840</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skirmossa
+Dunmossa
+Skogshakmossa
+Trind spretmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25764-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45804.3400462963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ask
 Guldlockmossa
@@ -904,207 +1080,31 @@
 Rostfläck</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 5841-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44963.56702546297</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Vippärt
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44523-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skirmossa
-Dunmossa
-Skogshakmossa
-Trind spretmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1491-2025</t>
+          <t>A 17693-2023</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45670.39987268519</v>
+        <v>45037</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,17 +1215,17 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>11.3</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>2</v>
       </c>
-      <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Bergjohannesört
+Vippärt</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 19281-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45769.54100694445</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>Skogsklocka
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="T10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="V10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="W10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="X10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="Y10">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>A 1491-2025</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>45670.39987268519</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 17693-2023</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45037</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Bergjohannesört
-Vippärt</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 19281-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45769.54100694445</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43531-2025</t>
+          <t>A 53515-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45911</v>
+        <v>45614.60082175926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,13 +1557,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
@@ -1597,35 +1592,31 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>Kungsfågel</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Z13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
     </row>
@@ -1639,7 +1630,7 @@
         <v>45461.57582175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1715,7 @@
         <v>44896</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1802,14 +1793,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 53515-2024</t>
+          <t>A 43531-2025</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>45614.60082175926</v>
+        <v>45911</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1821,8 +1812,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>3.5</v>
+        <v>8</v>
       </c>
       <c r="H16" t="n">
         <v>1</v>
@@ -1856,31 +1852,35 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kungsfågel</t>
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Z16">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
         <v/>
       </c>
     </row>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2913,14 +2913,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 53549-2022</t>
+          <t>A 52243-2022</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44879.6300462963</v>
+        <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2933,7 +2933,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2970,14 +2970,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 52243-2022</t>
+          <t>A 53549-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44873.60039351852</v>
+        <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2990,7 +2990,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>44239</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44456</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44305</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44305</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3312,14 +3312,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 11667-2021</t>
+          <t>A 29279-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44264</v>
+        <v>44750.74405092592</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73-2022</t>
+          <t>A 11667-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44564.46929398148</v>
+        <v>44264</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3426,14 +3426,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 44833-2021</t>
+          <t>A 73-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44438.55181712963</v>
+        <v>44564.46929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3483,14 +3483,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 50694-2021</t>
+          <t>A 17109-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44460</v>
+        <v>44677</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 2355-2022</t>
+          <t>A 44833-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44578.94528935185</v>
+        <v>44438.55181712963</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>7</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3597,14 +3597,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 25751-2021</t>
+          <t>A 11657-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44343</v>
+        <v>44264.70421296296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 50694-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>44460</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 2355-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>44578.94528935185</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 23350-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>44720.55946759259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 15025-2022</t>
+          <t>A 44884-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44657</v>
+        <v>44438</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.5</v>
+        <v>5.7</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3882,14 +3882,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17109-2022</t>
+          <t>A 17019-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44677</v>
+        <v>44676</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3939,14 +3939,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 29279-2022</t>
+          <t>A 25751-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44750.74405092592</v>
+        <v>44343</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>9.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3996,14 +3996,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 11657-2021</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44264.70421296296</v>
+        <v>44378</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4053,14 +4053,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 23350-2022</t>
+          <t>A 39171-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44720.55946759259</v>
+        <v>44817</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 44884-2021</t>
+          <t>A 71252-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44438</v>
+        <v>44539</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4167,14 +4167,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 17019-2022</t>
+          <t>A 21097-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44676</v>
+        <v>44704.55649305556</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4224,14 +4224,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39171-2022</t>
+          <t>A 15025-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44817</v>
+        <v>44657</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4281,14 +4281,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 71252-2021</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44539</v>
+        <v>44508</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21097-2022</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44704.55649305556</v>
+        <v>44868</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 57801-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44508</v>
+        <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 57801-2021</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44484</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44873</v>
+        <v>45264</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,8 +4585,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>4.6</v>
+        <v>7.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4628,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>44439</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4648,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4685,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>45030</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4705,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4742,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45036</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4762,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4799,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>44783</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4819,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4851,14 +4856,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4876,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4913,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44783</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4933,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4970,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44439</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,14 +5027,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5047,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5084,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44915</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5104,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5141,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5161,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>8.5</v>
+        <v>3.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5198,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5218,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5255,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44952</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5275,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5312,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45429</v>
+        <v>45168</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5332,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5369,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45092</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5389,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5426,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5446,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.5</v>
+        <v>4.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5483,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44952</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5503,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5540,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5560,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5597,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5617,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5654,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45054</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5674,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>8.4</v>
+        <v>1.8</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5711,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>44307</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5731,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5768,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5788,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5825,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5845,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5882,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5902,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5939,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45357</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5959,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5996,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45030</v>
+        <v>45097</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6016,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6053,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45132</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6073,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6110,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45212</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6130,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6167,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>44965</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6187,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6224,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6244,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6281,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6301,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6338,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45113</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6358,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6395,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6415,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6452,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6472,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6509,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45586</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6529,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6566,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6586,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6623,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45344</v>
+        <v>45643</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6643,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6680,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6700,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6737,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6757,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6794,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6814,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>4.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6851,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44788</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6871,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>8.699999999999999</v>
+        <v>1.2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6908,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44728</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6928,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6965,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>44974</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6985,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7022,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45911</v>
+        <v>44655</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7036,13 +7041,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7079,14 +7079,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7099,7 +7099,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7136,14 +7136,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7156,7 +7156,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.9</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7193,14 +7193,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>44974</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7213,7 +7213,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7250,14 +7250,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7270,7 +7270,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7307,14 +7307,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7364,14 +7364,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7384,7 +7384,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7421,14 +7421,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44655</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,7 +7441,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.9</v>
+        <v>2.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7478,14 +7478,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45007</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,7 +7498,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7535,14 +7535,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7555,7 +7555,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7592,14 +7592,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44974</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7612,7 +7612,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7649,14 +7649,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7669,7 +7669,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>3.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7706,14 +7706,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7763,14 +7763,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44914</v>
+        <v>45820</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7783,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7820,14 +7820,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7840,7 +7840,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7877,14 +7877,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.8</v>
+        <v>7.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7934,14 +7934,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44636</v>
+        <v>44442</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7954,7 +7954,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.7</v>
+        <v>7.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>44914</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44307</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8125,7 +8125,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8162,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45167</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45006</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>7.3</v>
+        <v>0.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45369</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8295,8 +8295,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8338,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>44952</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8353,7 +8358,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8390,14 +8395,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8415,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7.2</v>
+        <v>1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8452,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>44636</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8472,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8509,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45222</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8524,7 +8529,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8561,14 +8566,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45042</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8581,7 +8586,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>6.2</v>
+        <v>3.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8618,14 +8623,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8643,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8675,14 +8680,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8700,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8732,14 +8737,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8752,7 +8757,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8789,14 +8794,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8809,7 +8814,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>4.7</v>
+        <v>12.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8846,14 +8851,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8866,7 +8871,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8903,14 +8908,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44971</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8923,7 +8928,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>6.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8960,14 +8965,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8980,7 +8985,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>5.8</v>
+        <v>0.9</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9017,14 +9022,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9042,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9074,14 +9079,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45054</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9099,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>8.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9131,14 +9136,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9156,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9188,14 +9193,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9213,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9245,14 +9250,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9265,7 +9270,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9302,14 +9307,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>44971</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9327,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9364,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9379,7 +9384,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9421,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9441,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>5.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9478,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45800</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9493,7 +9498,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9530,14 +9535,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9550,7 +9555,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9587,14 +9592,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45344</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9607,7 +9612,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>10.2</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9644,14 +9649,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9664,7 +9669,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9701,14 +9706,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9721,7 +9726,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9758,14 +9763,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9783,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9815,14 +9820,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9835,7 +9840,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.9</v>
+        <v>0.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9872,14 +9877,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9892,7 +9897,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9929,14 +9934,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45643</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,7 +9954,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9986,14 +9991,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45344</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10006,7 +10011,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10043,14 +10048,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>44728</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10063,7 +10068,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10100,14 +10105,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>44974</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10120,7 +10125,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10157,14 +10162,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45356</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10177,7 +10182,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10214,14 +10219,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10234,7 +10239,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10271,14 +10276,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>44623</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10291,7 +10296,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10328,14 +10333,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10348,7 +10353,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10385,14 +10390,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10405,7 +10410,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.5</v>
+        <v>1.6</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10442,14 +10447,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45442</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10462,7 +10467,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10499,14 +10504,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45442</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10519,7 +10524,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10556,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>44788</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10613,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45820</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10670,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45820</v>
+        <v>45198</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10727,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45820</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10784,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10841,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10866,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>3.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10898,14 +10903,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10923,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10955,14 +10960,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10980,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11012,14 +11017,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45238</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11037,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11069,14 +11074,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44307</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11094,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11126,14 +11131,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>44389</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11151,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11183,14 +11188,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11203,7 +11208,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11240,14 +11245,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44914</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11260,7 +11265,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11297,14 +11302,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11317,7 +11322,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11354,14 +11359,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11374,7 +11379,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.1</v>
+        <v>5.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11411,14 +11416,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11431,7 +11436,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11468,14 +11473,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11488,7 +11493,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>10.6</v>
+        <v>1.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11525,14 +11530,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11545,7 +11550,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11582,14 +11587,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11602,7 +11607,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11639,14 +11644,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11659,7 +11664,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11696,14 +11701,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11716,7 +11721,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11753,14 +11758,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>44389</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11773,7 +11778,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11810,14 +11815,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44903</v>
+        <v>44389</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11830,7 +11835,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11867,14 +11872,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45369</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11886,13 +11891,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G192" t="n">
-        <v>6.6</v>
+        <v>0.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11929,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11986,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45356</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45167</v>
+        <v>45089</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45126</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45216.708125</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>12.1</v>
+        <v>2.2</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>44974</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>44915</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>5.4</v>
+        <v>8.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.9</v>
+        <v>8.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45036</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>5.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.1</v>
+        <v>4.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>44883</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45113</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44965</v>
+        <v>45007</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45225</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45664.47</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>2</v>
+        <v>5.4</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45198</v>
+        <v>45225</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>2.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>44873</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45057</v>
+        <v>44307</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>10.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44463</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45429</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>44463</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45945</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>5.2</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45945</v>
+        <v>45750</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>44974</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>44903</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45168</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44389</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>44389</v>
+        <v>45212</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45006</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>44655</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45973</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>8</v>
+        <v>5.9</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45911</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15311,8 +15311,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G252" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15374,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45057</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.1</v>
+        <v>6.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45344</v>
+        <v>45357</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15768,7 +15773,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.9</v>
+        <v>7.2</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>6</v>
+        <v>3.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15944,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>44974</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16110,7 +16115,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16167,7 +16172,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>4.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16204,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16224,7 +16229,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16261,14 +16266,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16281,7 +16286,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16318,14 +16323,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45992</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16338,7 +16343,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>12.3</v>
+        <v>1.3</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16375,14 +16380,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16395,7 +16400,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16432,14 +16437,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45994</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16452,7 +16457,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16489,14 +16494,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16509,7 +16514,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16546,14 +16551,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45664.47</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16571,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>5.4</v>
+        <v>1.6</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16603,14 +16608,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44378</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16623,7 +16628,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16660,14 +16665,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16680,7 +16685,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16717,14 +16722,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16737,7 +16742,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16774,14 +16779,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16831,14 +16836,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44623</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16851,7 +16856,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16888,14 +16893,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16908,7 +16913,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16945,14 +16950,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44883</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16965,7 +16970,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17002,14 +17007,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17022,7 +17027,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17059,14 +17064,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>44914</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17079,7 +17084,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17116,14 +17121,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45126</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17136,7 +17141,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>4.3</v>
+        <v>7.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17173,14 +17178,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17193,7 +17198,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17230,14 +17235,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17250,7 +17255,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17287,14 +17292,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17307,7 +17312,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17344,14 +17349,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17364,7 +17369,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17401,14 +17406,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44974</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17421,7 +17426,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17458,14 +17463,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17478,7 +17483,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17515,14 +17520,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45238</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17535,7 +17540,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17572,14 +17577,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45097</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17592,7 +17597,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.5</v>
+        <v>4.8</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17629,14 +17634,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17649,7 +17654,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17686,14 +17691,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17706,7 +17711,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17743,14 +17748,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17763,7 +17768,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>3.1</v>
+        <v>1.9</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17800,14 +17805,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17820,7 +17825,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17857,14 +17862,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>44442</v>
+        <v>45945</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17877,7 +17882,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17914,14 +17919,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>45945</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17934,7 +17939,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17971,14 +17976,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17991,7 +17996,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18028,14 +18033,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18048,7 +18053,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18085,14 +18090,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18105,7 +18110,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.8</v>
+        <v>5.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18142,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18162,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18199,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18219,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18256,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45800</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18276,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18313,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18333,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18370,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44868</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18390,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18427,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18447,7 +18452,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18484,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18504,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18541,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45132</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18561,7 +18566,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18598,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45222</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18618,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18655,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45973</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18675,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.3</v>
+        <v>8</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18712,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44389</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18732,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>2.6</v>
+        <v>1</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18769,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18789,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18826,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45586</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18846,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18883,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18903,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18940,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18960,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -18997,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45992</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19017,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19054,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19074,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19111,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19131,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19168,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>44952</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19188,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19225,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45994</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19245,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>6.1</v>
+        <v>1.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19282,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19302,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19339,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45442</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19396,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45442</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19416,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19453,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45092</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19473,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19510,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19530,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19567,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45042</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19587,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19624,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>44655</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19644,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19681,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45264</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19700,13 +19705,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G329" t="n">
-        <v>7.9</v>
+        <v>0.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45750</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45089</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19971,14 +19971,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z334"/>
+  <dimension ref="A1:Z333"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 5841-2023</t>
+          <t>A 25764-2025</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>44963.56702546297</v>
+        <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,39 +864,127 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="I5" t="n">
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>1</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>2</v>
-      </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Ask
+Guldlockmossa
+Lönnlav
+Rostfläck</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 5841-2023</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>44963.56702546297</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Svinrot
 Vippärt
@@ -904,87 +992,87 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
         <is>
           <t>A 44523-2022</t>
         </is>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B7" s="1" t="n">
         <v>44840</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>1.5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H7" t="n">
         <v>1</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I7" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J7" t="n">
         <v>1</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
         <v>4</v>
       </c>
-      <c r="R6" s="2" t="inlineStr">
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Skirmossa
 Dunmossa
@@ -992,119 +1080,31 @@
 Trind spretmossa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 25764-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45804.3400462963</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Ask
-Guldlockmossa
-Lönnlav
-Rostfläck</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 17693-2023</t>
+          <t>A 1491-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45037</v>
+        <v>45670.39987268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>11.3</v>
+        <v>3.3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 17693-2023</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45037</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>2</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Bergjohannesört
 Vippärt</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 19281-2025</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45769.54100694445</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>1.6</v>
       </c>
-      <c r="H10" t="n">
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J11" t="n">
         <v>1</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Skogsklocka
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 1491-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45670.39987268519</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 53515-2024</t>
+          <t>A 24894-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45614.60082175926</v>
+        <v>45461.57582175926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1558,17 +1558,17 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1592,298 +1592,298 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 58906-2022</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>44896</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>22</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 43531-2025</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>8</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Z15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 53515-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45614.60082175926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>A 24894-2024</t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>45461.57582175926</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla</t>
-        </is>
-      </c>
-      <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 58906-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 43531-2025</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>8</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Z16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 45465-2021</t>
+          <t>A 51547-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 51547-2021</t>
+          <t>A 45465-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44461</v>
+        <v>44440</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3027,14 +3027,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 7422-2021</t>
+          <t>A 50370-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44239</v>
+        <v>44456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3047,7 +3047,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3084,14 +3084,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 50370-2021</t>
+          <t>A 53672-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44456</v>
+        <v>44469.45305555555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 53672-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44469.45305555555</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44305</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3255,14 +3255,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 11667-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44305</v>
+        <v>44264</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3312,14 +3312,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29279-2022</t>
+          <t>A 44833-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44750.74405092592</v>
+        <v>44438.55181712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>9.800000000000001</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 11667-2021</t>
+          <t>A 50694-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44264</v>
+        <v>44460</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3483,14 +3483,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 17109-2022</t>
+          <t>A 2355-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44677</v>
+        <v>44578.94528935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3540,14 +3540,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 44833-2021</t>
+          <t>A 25751-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44438.55181712963</v>
+        <v>44343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3560,7 +3560,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3597,14 +3597,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 11657-2021</t>
+          <t>A 15025-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44264.70421296296</v>
+        <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 50694-2021</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44460</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 2355-2022</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44578.94528935185</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 23350-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44720.55946759259</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3825,14 +3825,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 44884-2021</t>
+          <t>A 17109-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44438</v>
+        <v>44677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>5.7</v>
+        <v>0.6</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3882,14 +3882,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 17019-2022</t>
+          <t>A 29279-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44676</v>
+        <v>44750.74405092592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3939,14 +3939,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 25751-2021</t>
+          <t>A 11657-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44343</v>
+        <v>44264.70421296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3996,14 +3996,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 23350-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44378</v>
+        <v>44720.55946759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4053,14 +4053,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 39171-2022</t>
+          <t>A 44884-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44817</v>
+        <v>44438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4073,7 +4073,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.5</v>
+        <v>5.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -4110,14 +4110,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 71252-2021</t>
+          <t>A 17019-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44539</v>
+        <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4167,14 +4167,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 21097-2022</t>
+          <t>A 71252-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44704.55649305556</v>
+        <v>44539</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>2.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4224,14 +4224,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 15025-2022</t>
+          <t>A 39171-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44657</v>
+        <v>44817</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4281,14 +4281,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 21097-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44508</v>
+        <v>44704.55649305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44868</v>
+        <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4402,7 +4402,7 @@
         <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>44873</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45264</v>
+        <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4585,13 +4585,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>7.9</v>
+        <v>4.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4628,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44439</v>
+        <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4648,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4685,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45030</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4705,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>8.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4742,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4762,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4799,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44783</v>
+        <v>44952</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4819,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4856,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4876,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4913,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>45357</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4933,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4970,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4990,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>8.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5027,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5047,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>4.3</v>
+        <v>2.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5084,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5104,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5141,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45030</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5161,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5198,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5218,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>7.6</v>
+        <v>1.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5255,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45212</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5275,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5312,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45168</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5332,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5369,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45092</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5389,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5426,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45344</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5446,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5483,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44952</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5503,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5540,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45222</v>
+        <v>44788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5560,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5597,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5617,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5654,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5674,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5711,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44307</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5731,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5768,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5788,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5825,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5845,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5882,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5939,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5959,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>5.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5996,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45097</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6016,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6053,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45132</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6073,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6110,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>44655</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6130,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6167,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44965</v>
+        <v>45007</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6187,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6224,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>44974</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6244,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6281,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6301,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6338,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45113</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6358,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6402,7 +6397,7 @@
         <v>45803.57804398148</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6452,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>44636</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6472,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6509,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45586</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6529,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6566,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6586,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6623,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45643</v>
+        <v>44307</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6643,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6680,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45800</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6700,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6737,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6757,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6794,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6814,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6851,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6871,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.2</v>
+        <v>5.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6908,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6928,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6965,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44974</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6985,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7022,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44655</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7042,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7079,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7099,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7136,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>44971</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7156,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7193,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44974</v>
+        <v>45643</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7213,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7250,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7270,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7307,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7327,7 +7322,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7364,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>44974</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7384,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7421,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7441,7 +7436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7478,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7498,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7535,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7555,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7592,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7612,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7649,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7669,7 +7664,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45820</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7820,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
         <v>45820</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
         <v>45820</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>7.9</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>44442</v>
+        <v>45820</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7954,7 +7949,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7991,14 +7986,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44914</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8011,7 +8006,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8048,14 +8043,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8068,7 +8063,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8105,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8125,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8162,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45167</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8182,7 +8177,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.5</v>
+        <v>5.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45006</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8239,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8276,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45369</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8295,13 +8290,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8338,14 +8328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44952</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8358,7 +8348,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8395,14 +8385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8415,7 +8405,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8452,14 +8442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44636</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8472,7 +8462,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8509,14 +8499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8529,7 +8519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8566,14 +8556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45042</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8586,7 +8576,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.3</v>
+        <v>0.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8623,14 +8613,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8643,7 +8633,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8680,14 +8670,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45222</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8700,7 +8690,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8737,14 +8727,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8757,7 +8747,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>8.199999999999999</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8794,14 +8784,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8814,7 +8804,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>12.1</v>
+        <v>2.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8851,14 +8841,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8871,7 +8861,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8908,14 +8898,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8928,7 +8918,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8965,14 +8955,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>44307</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8985,7 +8975,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9022,14 +9012,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9042,7 +9032,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9079,14 +9069,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45054</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9099,7 +9089,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>8.4</v>
+        <v>0.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9136,14 +9126,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9156,7 +9146,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9193,14 +9183,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>44914</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9213,7 +9203,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9250,14 +9240,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9270,7 +9260,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9307,14 +9297,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44971</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9327,7 +9317,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9364,14 +9354,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9384,7 +9374,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9421,14 +9411,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9441,7 +9431,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>5.5</v>
+        <v>2.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9478,14 +9468,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9498,7 +9488,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9535,14 +9525,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9555,7 +9545,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9592,14 +9582,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45344</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9612,7 +9602,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9649,14 +9639,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9669,7 +9659,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9706,14 +9696,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9726,7 +9716,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9763,14 +9753,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9783,7 +9773,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9820,14 +9810,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9840,7 +9830,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9877,14 +9867,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9897,7 +9887,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9934,14 +9924,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9954,7 +9944,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9991,14 +9981,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45344</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10011,7 +10001,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>10.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10048,14 +10038,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44728</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10068,7 +10058,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10105,14 +10095,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10125,7 +10115,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10162,14 +10152,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45356</v>
+        <v>44903</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10182,7 +10172,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.2</v>
+        <v>4.8</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10219,14 +10209,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45369</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10238,8 +10228,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>1.9</v>
+        <v>6.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10276,14 +10271,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44623</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10296,7 +10291,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10333,14 +10328,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45356</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10353,7 +10348,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10390,14 +10385,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10410,7 +10405,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.6</v>
+        <v>5.9</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10447,14 +10442,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45442</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10467,7 +10462,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10504,14 +10499,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45442</v>
+        <v>45911</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10523,8 +10518,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44788</v>
+        <v>45167</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>8.699999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.8</v>
+        <v>8.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45198</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>12.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10903,14 +10903,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45225</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10923,7 +10923,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10960,14 +10960,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10980,7 +10980,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11017,14 +11017,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45238</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11074,14 +11074,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11131,14 +11131,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44389</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11188,14 +11188,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.2</v>
+        <v>4.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11245,14 +11245,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11265,7 +11265,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>7.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11302,14 +11302,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11359,14 +11359,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11379,7 +11379,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>5.4</v>
+        <v>3.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11416,14 +11416,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11436,7 +11436,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11473,14 +11473,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.4</v>
+        <v>6.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11530,14 +11530,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11550,7 +11550,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11587,14 +11587,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11607,7 +11607,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11644,14 +11644,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11664,7 +11664,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.3</v>
+        <v>5.5</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11701,14 +11701,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11758,14 +11758,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44389</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.5</v>
+        <v>10.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11815,14 +11815,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44389</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11872,14 +11872,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11892,7 +11892,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11929,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45113</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11949,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11986,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12006,7 +12006,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45089</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.9</v>
+        <v>4.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45126</v>
+        <v>44965</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45198</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.2</v>
+        <v>1.3</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45057</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44974</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>44463</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44915</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>8.4</v>
+        <v>3.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>8.5</v>
+        <v>1.9</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45036</v>
+        <v>44974</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45168</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>5.3</v>
+        <v>2.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>44389</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.2</v>
+        <v>2.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44883</v>
+        <v>44389</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45006</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>4.1</v>
+        <v>0.8</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45007</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45664.47</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>6.1</v>
+        <v>1.9</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45344</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45225</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44873</v>
+        <v>45945</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44307</v>
+        <v>45945</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>10.6</v>
+        <v>0.8</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45429</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44463</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45664.47</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>0.8</v>
+        <v>5.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>44378</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45750</v>
+        <v>45973</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.2</v>
+        <v>8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.9</v>
+        <v>2.2</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44903</v>
+        <v>44623</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>4.8</v>
+        <v>1.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>44883</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45212</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44655</v>
+        <v>45126</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>8.9</v>
+        <v>1.4</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15235,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>5.9</v>
+        <v>3.5</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45911</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15311,13 +15311,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G252" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>4.7</v>
+        <v>2.3</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15468,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45057</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>6.2</v>
+        <v>2.4</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.1</v>
+        <v>0.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>45992</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>12.3</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45357</v>
+        <v>44974</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45238</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>7.2</v>
+        <v>0.6</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45097</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>5.5</v>
+        <v>1.8</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44974</v>
+        <v>45994</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16038,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16058,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16115,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>4.4</v>
+        <v>0.8</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16209,14 +16204,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>44442</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16229,7 +16224,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16266,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16286,7 +16281,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>10.2</v>
+        <v>1.2</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16323,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16343,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16380,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16400,7 +16395,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16437,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16457,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16494,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16514,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16551,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16571,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16608,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>44868</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16665,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16722,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16737,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16779,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45132</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16799,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16836,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45222</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16856,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16893,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16913,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16950,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16970,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17007,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17027,7 +17022,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17064,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44914</v>
+        <v>44389</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17084,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17121,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17141,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>7.3</v>
+        <v>1</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17178,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45586</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17198,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17235,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17255,7 +17250,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17292,14 +17287,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17312,7 +17307,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17349,14 +17344,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17369,7 +17364,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17406,14 +17401,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17426,7 +17421,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17463,14 +17458,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17483,7 +17478,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17520,14 +17515,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17577,14 +17572,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>44952</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17597,7 +17592,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17634,14 +17629,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17654,7 +17649,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>2</v>
+        <v>6.1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17691,14 +17686,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17711,7 +17706,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17748,14 +17743,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45442</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17768,7 +17763,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17805,14 +17800,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45442</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17825,7 +17820,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17862,14 +17857,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45945</v>
+        <v>45092</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17882,7 +17877,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17919,14 +17914,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45945</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17939,7 +17934,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>8.800000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17976,14 +17971,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45042</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17996,7 +17991,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18033,14 +18028,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>44655</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18053,7 +18048,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18090,14 +18085,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45264</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18109,8 +18104,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G301" t="n">
-        <v>5.8</v>
+        <v>7.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45750</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45800</v>
+        <v>45089</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45036</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18489,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>44439</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18603,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45429</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45973</v>
+        <v>45216.708125</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>8</v>
+        <v>2.7</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45992</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>12.3</v>
+        <v>1.5</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19230,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45994</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>3.1</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.8</v>
+        <v>3.8</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>44914</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>0.8</v>
+        <v>7.8</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19911,17 +19911,17 @@
       </c>
       <c r="R332" s="2" t="inlineStr"/>
     </row>
-    <row r="333" ht="15" customHeight="1">
+    <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>3.9</v>
+        <v>7.3</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19967,63 +19967,6 @@
         <v>0</v>
       </c>
       <c r="R333" s="2" t="inlineStr"/>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>A 63857-2025</t>
-        </is>
-      </c>
-      <c r="B334" s="1" t="n">
-        <v>46020.48369212963</v>
-      </c>
-      <c r="C334" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D334" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E334" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G334" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H334" t="n">
-        <v>0</v>
-      </c>
-      <c r="I334" t="n">
-        <v>0</v>
-      </c>
-      <c r="J334" t="n">
-        <v>0</v>
-      </c>
-      <c r="K334" t="n">
-        <v>0</v>
-      </c>
-      <c r="L334" t="n">
-        <v>0</v>
-      </c>
-      <c r="M334" t="n">
-        <v>0</v>
-      </c>
-      <c r="N334" t="n">
-        <v>0</v>
-      </c>
-      <c r="O334" t="n">
-        <v>0</v>
-      </c>
-      <c r="P334" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q334" t="n">
-        <v>0</v>
-      </c>
-      <c r="R334" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>44963.56702546297</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45670.39987268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45769.54100694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 24894-2024</t>
+          <t>A 43531-2025</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45461.57582175926</v>
+        <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,17 +1557,22 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G13" t="n">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1582,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1592,213 +1597,208 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Kungsfågel</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+      <c r="Z13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 24894-2024</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45461.57582175926</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Klasefibbla</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 58906-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>22</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 43531-2025</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>45911</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>8</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Kungsfågel</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-      <c r="Z15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45614.60082175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2400,14 +2400,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 51547-2021</t>
+          <t>A 45465-2021</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44461</v>
+        <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2457,14 +2457,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 45465-2021</t>
+          <t>A 51547-2021</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44440</v>
+        <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2477,7 +2477,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3148,7 +3148,7 @@
         <v>44752.93924768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>44305</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3262,7 +3262,7 @@
         <v>44264</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3312,14 +3312,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44833-2021</t>
+          <t>A 73-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44438.55181712963</v>
+        <v>44564.46929398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 50694-2021</t>
+          <t>A 44833-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44460</v>
+        <v>44438.55181712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3426,14 +3426,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 73-2022</t>
+          <t>A 50694-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44564.46929398148</v>
+        <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3661,7 +3661,7 @@
         <v>44620.36696759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3718,7 +3718,7 @@
         <v>44879.65046296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>44840.44130787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>44677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4167,14 +4167,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 71252-2021</t>
+          <t>A 39171-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44539</v>
+        <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4187,7 +4187,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4224,14 +4224,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39171-2022</t>
+          <t>A 71252-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44817</v>
+        <v>44539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4244,7 +4244,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 57801-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44508</v>
+        <v>44484</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 57801-2021</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44484</v>
+        <v>44508</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>44873</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45762.65361111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4573,7 +4573,7 @@
         <v>44783</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4630,7 +4630,7 @@
         <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4687,7 +4687,7 @@
         <v>44915.34159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4744,7 +4744,7 @@
         <v>45589.53059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44952</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45357</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4972,7 +4972,7 @@
         <v>45054</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45357</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.1</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5143,7 +5143,7 @@
         <v>45030</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45212</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45212</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5314,7 +5314,7 @@
         <v>45359.5290625</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45344</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>3.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44788</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>8.699999999999999</v>
+        <v>3.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44728</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>44914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>5.8</v>
+        <v>1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44655</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>7.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45007</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44974</v>
+        <v>45344</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44636</v>
+        <v>44788</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.7</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>44728</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44307</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45800</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45222</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45800</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44971</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45643</v>
+        <v>44655</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45007</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>44974</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44974</v>
+        <v>44636</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>44307</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45222</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45643</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>44974</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7815,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45820</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45820</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7929,14 +7929,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45820</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>7.9</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7986,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8043,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>44971</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>5.9</v>
+        <v>0.5</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8214,14 +8214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45820</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.2</v>
+        <v>1.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8328,14 +8328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45820</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8385,14 +8385,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45820</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>6.1</v>
+        <v>7.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8442,14 +8442,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8499,14 +8499,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8556,14 +8556,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>5.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8613,14 +8613,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45911</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,8 +8632,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8670,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8690,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.8</v>
+        <v>8.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8727,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8747,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8784,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8804,7 +8809,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8841,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8861,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8898,14 +8903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8918,7 +8923,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>7.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8955,14 +8960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44307</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8975,7 +8980,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9012,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9032,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9069,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9089,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9126,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9146,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>6.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9183,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44914</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9203,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9240,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9260,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.2</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9297,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9317,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>5.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9354,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9374,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9411,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9431,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9468,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9488,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.2</v>
+        <v>5.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9525,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9545,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>10.2</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9582,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9602,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9639,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9659,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9696,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9716,7 +9721,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>2.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9753,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9773,7 +9778,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9810,14 +9815,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9830,7 +9835,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9867,14 +9872,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9887,7 +9892,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9924,14 +9929,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9944,7 +9949,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9981,14 +9986,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10001,7 +10006,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>10.6</v>
+        <v>3.6</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10038,14 +10043,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10058,7 +10063,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10095,14 +10100,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10115,7 +10120,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10152,14 +10157,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44903</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10172,7 +10177,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>4.8</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10209,14 +10214,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45369</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10228,13 +10233,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10271,14 +10271,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10328,14 +10328,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45356</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10385,14 +10385,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10442,14 +10442,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10499,14 +10499,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45911</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10518,13 +10518,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10561,14 +10556,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45167</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10581,7 +10576,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10618,14 +10613,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10638,7 +10633,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>8.9</v>
+        <v>3.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10675,14 +10670,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10695,7 +10690,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10732,14 +10727,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10752,7 +10747,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>8.199999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10789,14 +10784,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10809,7 +10804,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>12.1</v>
+        <v>2.2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10846,14 +10841,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>44307</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10866,7 +10861,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10903,14 +10898,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45225</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10923,7 +10918,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10960,14 +10955,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10980,7 +10975,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11017,14 +11012,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11074,14 +11069,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11094,7 +11089,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11131,14 +11126,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11151,7 +11146,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.2</v>
+        <v>5.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11188,14 +11183,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11208,7 +11203,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.2</v>
+        <v>0.9</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11245,14 +11240,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11265,7 +11260,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>7.2</v>
+        <v>0.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11302,14 +11297,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11322,7 +11317,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11359,14 +11354,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11379,7 +11374,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11416,14 +11411,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11436,7 +11431,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11473,14 +11468,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11493,7 +11488,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>6.2</v>
+        <v>0.4</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11530,14 +11525,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>44914</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11550,7 +11545,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11587,14 +11582,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11607,7 +11602,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11644,14 +11639,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11664,7 +11659,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.5</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11701,14 +11696,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11721,7 +11716,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11758,14 +11753,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11778,7 +11773,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>10.2</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11815,14 +11810,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11835,7 +11830,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>10.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11872,14 +11867,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11892,7 +11887,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11929,14 +11924,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45113</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11949,7 +11944,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11986,14 +11981,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12006,7 +12001,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12038,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45225</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12058,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>4.4</v>
+        <v>2.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12095,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12115,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12152,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44965</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12172,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12209,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>44903</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12229,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12266,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12286,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12323,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>45369</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12347,8 +12342,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>4.3</v>
+        <v>6.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45198</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45057</v>
+        <v>45356</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>45945</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44463</v>
+        <v>45945</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44974</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45167</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45168</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.7</v>
+        <v>12.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44389</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44389</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45006</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45973</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>2.2</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13924,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45344</v>
+        <v>45113</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>44965</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45945</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45945</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>8.800000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.8</v>
+        <v>2.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>45198</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45057</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45664.47</v>
+        <v>44463</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>44378</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45973</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>8</v>
+        <v>1.9</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44623</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44883</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>45992</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>3.8</v>
+        <v>12.3</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>45126</v>
+        <v>44974</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45168</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1</v>
+        <v>2.7</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45994</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>44389</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>44389</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45006</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15520,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45992</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>12.3</v>
+        <v>1.2</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>44974</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>45238</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45097</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45994</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45344</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16204,14 +16204,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>44442</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16224,7 +16224,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16261,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16318,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45664.47</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16375,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>44378</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16432,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>44623</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16489,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16546,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>44883</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16603,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44868</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16660,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16717,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45126</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.5</v>
+        <v>4.3</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16774,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>45132</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16831,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45222</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16888,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16945,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>44974</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17002,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45238</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17059,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44389</v>
+        <v>45097</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17116,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17173,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45586</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17230,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17287,14 +17287,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>44442</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.7</v>
+        <v>7.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17344,14 +17344,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17401,14 +17401,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17458,14 +17458,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17515,14 +17515,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>44868</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17572,14 +17572,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>44952</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17629,14 +17629,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45132</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>6.1</v>
+        <v>0.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17686,14 +17686,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>45222</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>0.4</v>
+        <v>3.1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17743,14 +17743,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45442</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17800,14 +17800,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45442</v>
+        <v>44389</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17857,14 +17857,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45092</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17914,14 +17914,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45586</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17971,14 +17971,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45042</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18028,14 +18028,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44655</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18085,14 +18085,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45264</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18104,13 +18104,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G301" t="n">
-        <v>7.9</v>
+        <v>1.5</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18142,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18162,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>3.4</v>
+        <v>0.3</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18199,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45750</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18219,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18256,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45089</v>
+        <v>44952</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18276,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18313,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18333,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.7</v>
+        <v>6.1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18370,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18390,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18427,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45036</v>
+        <v>45442</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18452,7 +18447,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18489,14 +18484,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18504,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18541,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44439</v>
+        <v>45092</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18566,7 +18561,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18603,14 +18598,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45429</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18618,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18655,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45042</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18675,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18712,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>44655</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18732,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18769,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45264</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18793,8 +18788,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G313" t="n">
-        <v>1.9</v>
+        <v>7.9</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45750</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45089</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45036</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19230,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>44439</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45429</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45216.708125</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>3.8</v>
+        <v>7.6</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>44914</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>4.8</v>
+        <v>1.5</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>7.8</v>
+        <v>2.1</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>7.3</v>
+        <v>2.4</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z333"/>
+  <dimension ref="A1:Z334"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>45804.3400462963</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -939,7 +939,7 @@
         <v>44963.56702546297</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45670.39987268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45769.54100694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1639,7 +1639,7 @@
         <v>45461.57582175926</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1724,7 +1724,7 @@
         <v>44896</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1809,7 +1809,7 @@
         <v>45614.60082175926</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3141,14 +3141,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44305</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44305</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>44264</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3312,14 +3312,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 73-2022</t>
+          <t>A 44833-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44564.46929398148</v>
+        <v>44438.55181712963</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 44833-2021</t>
+          <t>A 73-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44438.55181712963</v>
+        <v>44564.46929398148</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,14 +3597,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 15025-2022</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44657</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 15025-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>44657</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>44677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4338,14 +4338,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 57801-2021</t>
+          <t>A 63539-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44484</v>
+        <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4358,7 +4358,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4395,14 +4395,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 63539-2021</t>
+          <t>A 57801-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44508</v>
+        <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4415,7 +4415,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>44873</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4516,7 +4516,7 @@
         <v>45762.65361111111</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44783</v>
+        <v>44915</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.2</v>
+        <v>8.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44915</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>44783</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4744,7 +4744,7 @@
         <v>45589.53059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4801,7 +4801,7 @@
         <v>44952</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45054</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>8.4</v>
+        <v>0.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45357</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45054</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>8.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45030</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45212</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45357</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45973</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.2</v>
+        <v>3.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>44914</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44914</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4.8</v>
+        <v>2.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5941,7 +5941,7 @@
         <v>45790.39219907407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>45030</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45212</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.3</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45344</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>7.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44788</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>8.699999999999999</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44728</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>5.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.6</v>
+        <v>5.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45344</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45800</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>44788</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44655</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45007</v>
+        <v>45800</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44974</v>
+        <v>44728</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44636</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.7</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44307</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7473,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45222</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45643</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>44655</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45007</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7664,7 +7664,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7701,14 +7701,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>44974</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7758,14 +7758,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44974</v>
+        <v>44636</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7778,7 +7778,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7815,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>44307</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7835,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45643</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7892,7 +7892,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7929,14 +7929,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7949,7 +7949,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7986,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>4.7</v>
+        <v>2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8043,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44971</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8063,7 +8063,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8100,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45222</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8120,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8157,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>44974</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,7 +8177,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8214,14 +8214,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45820</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8271,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>3.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8328,14 +8328,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45820</v>
+        <v>45911</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8347,8 +8347,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8385,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45820</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8405,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>7.9</v>
+        <v>1.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8442,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8462,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.9</v>
+        <v>8.9</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8499,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8519,7 +8524,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8556,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8576,7 +8581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.9</v>
+        <v>1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8613,14 +8618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45911</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8632,13 +8637,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8675,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>8.9</v>
+        <v>3.1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8732,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8789,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>44971</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.1</v>
+        <v>0.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8846,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8910,7 +8910,7 @@
         <v>45917.43494212963</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8967,7 +8967,7 @@
         <v>45917.32519675926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9017,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>6.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9074,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9131,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>6.2</v>
+        <v>1.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9245,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45820</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9302,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.5</v>
+        <v>0.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45820</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45820</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.5</v>
+        <v>7.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9537,7 +9537,7 @@
         <v>45923.64278935185</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9587,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>6.1</v>
+        <v>3.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9651,7 +9651,7 @@
         <v>45923.90445601852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9701,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9758,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9815,14 +9815,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>5.5</v>
+        <v>1.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9872,14 +9872,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9929,14 +9929,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9986,14 +9986,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>3.6</v>
+        <v>0.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10043,14 +10043,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10100,14 +10100,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3.2</v>
+        <v>6.1</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10157,14 +10157,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10214,14 +10214,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10271,14 +10271,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10328,14 +10328,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10385,14 +10385,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10442,14 +10442,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10499,14 +10499,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10556,14 +10556,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10613,14 +10613,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.5</v>
+        <v>0.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10670,14 +10670,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10727,14 +10727,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10784,14 +10784,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10841,14 +10841,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44307</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10898,14 +10898,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>44307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10955,14 +10955,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11012,14 +11012,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11069,14 +11069,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11126,14 +11126,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11183,14 +11183,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.9</v>
+        <v>3.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11240,14 +11240,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11297,14 +11297,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11354,14 +11354,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11411,14 +11411,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11468,14 +11468,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11532,7 +11532,7 @@
         <v>44914</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11582,14 +11582,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11639,14 +11639,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11696,14 +11696,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11753,14 +11753,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11810,14 +11810,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11830,7 +11830,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>10.6</v>
+        <v>1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11867,14 +11867,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11924,14 +11924,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11981,14 +11981,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12001,7 +12001,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12038,14 +12038,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45225</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12058,7 +12058,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.5</v>
+        <v>10.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12095,14 +12095,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12115,7 +12115,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12152,14 +12152,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12172,7 +12172,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12209,14 +12209,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44903</v>
+        <v>45945</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12229,7 +12229,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12266,14 +12266,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>45945</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12286,7 +12286,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12323,14 +12323,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45369</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12342,13 +12342,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>6.6</v>
+        <v>0.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12380,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>44903</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12400,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>4.8</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12437,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45369</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12461,8 +12456,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>6.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45356</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45945</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45945</v>
+        <v>45356</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>8.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45167</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.8</v>
+        <v>12.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45167</v>
+        <v>45225</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>8.199999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>12.1</v>
+        <v>2</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13411,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45973</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>8</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45992</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.2</v>
+        <v>12.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45994</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13817,7 +13817,7 @@
         <v>45684.5937037037</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13874,7 +13874,7 @@
         <v>45684.59524305556</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13931,7 +13931,7 @@
         <v>45113</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44965</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>44965</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45198</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45057</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>4.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44463</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45198</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14514,7 +14514,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.5</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>45057</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>44463</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>44974</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45992</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>12.3</v>
+        <v>1.8</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15007,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45168</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15027,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15064,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44974</v>
+        <v>44389</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>44389</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45168</v>
+        <v>45006</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>2.7</v>
+        <v>0.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45994</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>44389</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>44389</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45006</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15426,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15768,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45344</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45344</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16110,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16147,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16167,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16211,7 +16211,7 @@
         <v>45371.58719907407</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16261,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16281,7 +16281,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16318,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45664.47</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16338,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16375,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44378</v>
+        <v>45664.47</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1</v>
+        <v>5.4</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16432,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44623</v>
+        <v>44378</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16489,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 9573-2026</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>46071.66459490741</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16509,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16546,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44883</v>
+        <v>44623</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16603,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16623,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16660,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>44883</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16717,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45126</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16774,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16794,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16831,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45126</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16851,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16888,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16908,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16945,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44974</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16965,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17002,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45238</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17022,7 +17022,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>0.6</v>
+        <v>2.4</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17059,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45097</v>
+        <v>44974</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17079,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17116,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45238</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17136,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17173,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45097</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17193,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17230,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17250,7 +17250,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17287,14 +17287,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44442</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17307,7 +17307,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>7.5</v>
+        <v>1.6</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17344,14 +17344,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17364,7 +17364,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17401,14 +17401,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>44442</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>4.1</v>
+        <v>7.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17458,14 +17458,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17478,7 +17478,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17515,14 +17515,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>44868</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17535,7 +17535,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17572,14 +17572,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17592,7 +17592,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17629,14 +17629,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45132</v>
+        <v>44868</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17649,7 +17649,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17686,14 +17686,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45222</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17706,7 +17706,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17743,14 +17743,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45132</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17763,7 +17763,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17800,14 +17800,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44389</v>
+        <v>45222</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17820,7 +17820,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17857,14 +17857,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17877,7 +17877,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17914,14 +17914,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45586</v>
+        <v>44389</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17934,7 +17934,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17971,14 +17971,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17991,7 +17991,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18028,14 +18028,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45586</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18048,7 +18048,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18085,14 +18085,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18105,7 +18105,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18142,14 +18142,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18162,7 +18162,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18199,14 +18199,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18219,7 +18219,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18256,14 +18256,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44952</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18276,7 +18276,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18313,14 +18313,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18333,7 +18333,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18370,14 +18370,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>44952</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18390,7 +18390,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18427,14 +18427,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>45442</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18447,7 +18447,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>6.1</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18484,14 +18484,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>45442</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18541,14 +18541,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45092</v>
+        <v>45442</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18598,14 +18598,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45442</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18655,14 +18655,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45042</v>
+        <v>45092</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18712,14 +18712,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44655</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18769,14 +18769,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45264</v>
+        <v>45042</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18788,13 +18788,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G313" t="n">
-        <v>7.9</v>
+        <v>3.3</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18826,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>44655</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18846,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18883,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45750</v>
+        <v>45264</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18907,8 +18902,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G315" t="n">
-        <v>1.2</v>
+        <v>7.9</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45089</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.9</v>
+        <v>3.4</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45750</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>45089</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 17538-2023</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45036</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19230,14 +19230,14 @@
     <row r="321" ht="15" customHeight="1">
       <c r="A321" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B321" s="1" t="n">
-        <v>44439</v>
+        <v>45036</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19250,7 +19250,7 @@
         </is>
       </c>
       <c r="G321" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45429</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>45216.708125</v>
+        <v>44439</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45429</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>7.6</v>
+        <v>0.7</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45216.708125</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>1.2</v>
+        <v>7.6</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,116 +19857,173 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
+          <t>A 21678-2025</t>
+        </is>
+      </c>
+      <c r="B332" s="1" t="n">
+        <v>45783.48696759259</v>
+      </c>
+      <c r="C332" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H332" t="n">
+        <v>0</v>
+      </c>
+      <c r="I332" t="n">
+        <v>0</v>
+      </c>
+      <c r="J332" t="n">
+        <v>0</v>
+      </c>
+      <c r="K332" t="n">
+        <v>0</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0</v>
+      </c>
+      <c r="M332" t="n">
+        <v>0</v>
+      </c>
+      <c r="N332" t="n">
+        <v>0</v>
+      </c>
+      <c r="O332" t="n">
+        <v>0</v>
+      </c>
+      <c r="P332" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
+      <c r="R332" s="2" t="inlineStr"/>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>A 21698-2025</t>
+        </is>
+      </c>
+      <c r="B333" s="1" t="n">
+        <v>45783.51045138889</v>
+      </c>
+      <c r="C333" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H333" t="n">
+        <v>0</v>
+      </c>
+      <c r="I333" t="n">
+        <v>0</v>
+      </c>
+      <c r="J333" t="n">
+        <v>0</v>
+      </c>
+      <c r="K333" t="n">
+        <v>0</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0</v>
+      </c>
+      <c r="M333" t="n">
+        <v>0</v>
+      </c>
+      <c r="N333" t="n">
+        <v>0</v>
+      </c>
+      <c r="O333" t="n">
+        <v>0</v>
+      </c>
+      <c r="P333" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
+      <c r="R333" s="2" t="inlineStr"/>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
           <t>A 13313-2024</t>
         </is>
       </c>
-      <c r="B332" s="1" t="n">
+      <c r="B334" s="1" t="n">
         <v>45386.73177083334</v>
       </c>
-      <c r="C332" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D332" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E332" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G332" t="n">
+      <c r="C334" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
         <v>2.1</v>
       </c>
-      <c r="H332" t="n">
-        <v>0</v>
-      </c>
-      <c r="I332" t="n">
-        <v>0</v>
-      </c>
-      <c r="J332" t="n">
-        <v>0</v>
-      </c>
-      <c r="K332" t="n">
-        <v>0</v>
-      </c>
-      <c r="L332" t="n">
-        <v>0</v>
-      </c>
-      <c r="M332" t="n">
-        <v>0</v>
-      </c>
-      <c r="N332" t="n">
-        <v>0</v>
-      </c>
-      <c r="O332" t="n">
-        <v>0</v>
-      </c>
-      <c r="P332" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q332" t="n">
-        <v>0</v>
-      </c>
-      <c r="R332" s="2" t="inlineStr"/>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>A 27342-2024</t>
-        </is>
-      </c>
-      <c r="B333" s="1" t="n">
-        <v>45473.34694444444</v>
-      </c>
-      <c r="C333" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D333" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E333" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G333" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="H333" t="n">
-        <v>0</v>
-      </c>
-      <c r="I333" t="n">
-        <v>0</v>
-      </c>
-      <c r="J333" t="n">
-        <v>0</v>
-      </c>
-      <c r="K333" t="n">
-        <v>0</v>
-      </c>
-      <c r="L333" t="n">
-        <v>0</v>
-      </c>
-      <c r="M333" t="n">
-        <v>0</v>
-      </c>
-      <c r="N333" t="n">
-        <v>0</v>
-      </c>
-      <c r="O333" t="n">
-        <v>0</v>
-      </c>
-      <c r="P333" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q333" t="n">
-        <v>0</v>
-      </c>
-      <c r="R333" s="2" t="inlineStr"/>
+      <c r="H334" t="n">
+        <v>0</v>
+      </c>
+      <c r="I334" t="n">
+        <v>0</v>
+      </c>
+      <c r="J334" t="n">
+        <v>0</v>
+      </c>
+      <c r="K334" t="n">
+        <v>0</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0</v>
+      </c>
+      <c r="M334" t="n">
+        <v>0</v>
+      </c>
+      <c r="N334" t="n">
+        <v>0</v>
+      </c>
+      <c r="O334" t="n">
+        <v>0</v>
+      </c>
+      <c r="P334" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
+      <c r="R334" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,14 +844,14 @@
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
-          <t>A 25764-2025</t>
+          <t>A 5841-2023</t>
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>45804.3400462963</v>
+        <v>44963.56702546297</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -864,22 +864,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.5</v>
+        <v>0.4</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -888,15 +888,103 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>4</v>
       </c>
       <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>Svinrot
+Vippärt
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="T5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="V5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="W5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="X5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>A 25764-2025</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>45804.3400462963</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
         <is>
           <t>Ask
 Guldlockmossa
@@ -904,119 +992,31 @@
 Rostfläck</t>
         </is>
       </c>
-      <c r="S5">
+      <c r="S6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="T5">
+      <c r="T6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="V5">
+      <c r="V6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="W5">
+      <c r="W6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="X5">
+      <c r="X6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="Y5">
+      <c r="Y6">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>A 5841-2023</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>44963.56702546297</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>2</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot
-Vippärt
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 5841-2023 artfynd.xlsx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 5841-2023 karta.png", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 5841-2023 FSC-klagomål.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 5841-2023 FSC-klagomål mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 5841-2023 tillsynsbegäran.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-      <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 5841-2023 tillsynsbegäran mail.docx", "A 5841-2023")</f>
-        <v/>
-      </c>
-    </row>
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44840</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         <v>45670.39987268519</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1288,7 +1288,7 @@
         <v>45037</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1374,7 +1374,7 @@
         <v>45769.54100694445</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1545,7 +1545,7 @@
         <v>45911</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1632,14 +1632,14 @@
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A 24894-2024</t>
+          <t>A 58906-2022</t>
         </is>
       </c>
       <c r="B14" s="1" t="n">
-        <v>45461.57582175926</v>
+        <v>44896</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1652,16 +1652,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>22</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1676,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1686,204 +1686,204 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="T14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="V14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="W14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="X14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+      <c r="Y14">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>A 53515-2024</t>
+        </is>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>45614.60082175926</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1</v>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>Blåsippa</t>
+        </is>
+      </c>
+      <c r="S15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="T15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="V15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="W15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+      <c r="Y15">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A 24894-2024</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>45461.57582175926</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1</v>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
           <t>Klasefibbla</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>A 58906-2022</t>
-        </is>
-      </c>
-      <c r="B15" s="1" t="n">
-        <v>44896</v>
-      </c>
-      <c r="C15" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>22</v>
-      </c>
-      <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1</v>
-      </c>
-      <c r="R15" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-      <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 53515-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45614.60082175926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Blåsippa</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2578,7 +2578,7 @@
         <v>44546.54055555556</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2635,7 +2635,7 @@
         <v>44804</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3091,7 +3091,7 @@
         <v>44469.45305555555</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3141,14 +3141,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44305</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44305</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.9</v>
+        <v>2.1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>44264</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3312,14 +3312,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 44833-2021</t>
+          <t>A 73-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44438.55181712963</v>
+        <v>44564.46929398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>7</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3369,14 +3369,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 73-2022</t>
+          <t>A 44833-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44564.46929398148</v>
+        <v>44438.55181712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3389,7 +3389,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3597,14 +3597,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 15025-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3617,7 +3617,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 15025-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44657</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>44677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44873</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4509,14 +4509,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 32642-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>44783</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4529,7 +4529,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44915</v>
+        <v>45357</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.4</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>44974</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>8.5</v>
+        <v>1.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 32642-2022</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44783</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>3.9</v>
+        <v>7.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44952</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4054-2025</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45684.61994212963</v>
+        <v>45092</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45225</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45054</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>8.4</v>
+        <v>1.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.1</v>
+        <v>0.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45357</v>
+        <v>44307</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45973</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.1</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44914</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>44914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.8</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 23426-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45792.3609375</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.3</v>
+        <v>7.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.2</v>
+        <v>3.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45030</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 51173-2023</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45212</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>7.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>7.3</v>
+        <v>2.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>44378</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>4.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 32549-2024</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45513.50513888889</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.2</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45344</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>44439</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45030</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 24312-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45797.51908564815</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 24527-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45798.42491898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 24533-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45798.43085648148</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.3</v>
+        <v>5.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 43017-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45567.39223379629</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44788</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45800</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44728</v>
+        <v>45945</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45945</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>4.2</v>
+        <v>1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14596-2022</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44655</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45007</v>
+        <v>45911</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7663,8 +7663,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7701,14 +7706,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44974</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7721,7 +7726,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7758,14 +7763,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 25747-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44636</v>
+        <v>45800</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7778,7 +7783,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7815,14 +7820,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 25652-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44307</v>
+        <v>45803.61063657407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7835,7 +7840,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7872,14 +7877,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 25635-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45643</v>
+        <v>45803.59703703703</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7892,7 +7897,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7929,14 +7934,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7949,7 +7954,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7986,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8006,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8043,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 25620-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45803.57626157408</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8063,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8100,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 25623-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45222</v>
+        <v>45803.57804398148</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8120,7 +8125,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8157,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44974</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8177,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8214,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8234,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8271,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8291,7 +8296,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.6</v>
+        <v>7.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8328,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45911</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8347,13 +8352,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>8.9</v>
+        <v>5.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8561,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 39535-2024</t>
+          <t>A 60395-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45551.87788194444</v>
+        <v>45643</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8675,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8732,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 8165-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>44974</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8789,14 +8789,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 10398-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44971</v>
+        <v>45365.67574074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8809,7 +8809,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8846,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8903,14 +8903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>7.2</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8960,14 +8960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 17528-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45415.60586805556</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9017,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>6.2</v>
+        <v>10.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9074,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 52922-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45610.71511574074</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>1.2</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9131,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 11848-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45728.38061342593</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.5</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9245,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 12501-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45820</v>
+        <v>45730.61782407408</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9302,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45820</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45820</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>7.9</v>
+        <v>0.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 7228-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45702.50678240741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9530,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10.2</v>
+        <v>1.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9587,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 493-2025</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45664.46502314815</v>
+        <v>45973</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.9</v>
+        <v>8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9644,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45820</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9701,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45132</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9758,14 +9758,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9815,14 +9815,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45820</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9872,14 +9872,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>45820</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.4</v>
+        <v>7.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9929,14 +9929,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,7 +9949,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9986,14 +9986,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>44965</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10043,14 +10043,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10100,14 +10100,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.1</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10157,14 +10157,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>5.5</v>
+        <v>1.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10214,14 +10214,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45586</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10234,7 +10234,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.1</v>
+        <v>4.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10271,14 +10271,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10291,7 +10291,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10328,14 +10328,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10348,7 +10348,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10385,14 +10385,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10405,7 +10405,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10442,14 +10442,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10462,7 +10462,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10499,14 +10499,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10519,7 +10519,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10556,14 +10556,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>44974</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10576,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10613,14 +10613,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 39728-2023</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45167.63978009259</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10633,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10670,14 +10670,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 17543-2023</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45036.49178240741</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10690,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.8</v>
+        <v>6.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10727,14 +10727,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10784,14 +10784,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10841,14 +10841,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10861,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10898,14 +10898,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44307</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10918,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10955,14 +10955,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>44442</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10975,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>7.5</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11012,14 +11012,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11032,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11069,14 +11069,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11089,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11126,14 +11126,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11183,14 +11183,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11203,7 +11203,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11240,14 +11240,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45992</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11260,7 +11260,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.5</v>
+        <v>12.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11297,14 +11297,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11317,7 +11317,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11354,14 +11354,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11374,7 +11374,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11411,14 +11411,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11431,7 +11431,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11468,14 +11468,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11488,7 +11488,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11525,14 +11525,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44914</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11582,14 +11582,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>4.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11639,14 +11639,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>5.4</v>
+        <v>2.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11696,14 +11696,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11716,7 +11716,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11753,14 +11753,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11773,7 +11773,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11810,14 +11810,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11867,14 +11867,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11887,7 +11887,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11924,14 +11924,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45006</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11944,7 +11944,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11981,14 +11981,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45369</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12000,8 +12000,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G194" t="n">
-        <v>2.3</v>
+        <v>6.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12038,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12058,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>10.6</v>
+        <v>0.9</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12095,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12115,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12152,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 10398-2024</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45365.67574074074</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12172,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12209,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45945</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12229,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12266,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45945</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12286,7 +12291,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>8.800000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12323,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12343,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12380,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58861-2022</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44903</v>
+        <v>44952</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12400,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12437,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45369</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12456,13 +12461,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12576,7 +12576,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45994</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45356</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45167</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>8.199999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>12.1</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45356</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45225</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>44389</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.8</v>
+        <v>5.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13418,7 +13418,7 @@
         <v>45884.6134375</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.5</v>
+        <v>4.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>44389</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45992</v>
+        <v>44389</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>12.3</v>
+        <v>0.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45089</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45994</v>
+        <v>45216.708125</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13924,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45113</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44965</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>6.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>44868</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.9</v>
+        <v>4.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45198</v>
+        <v>45264</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,8 +14513,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>7.9</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14551,14 +14556,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 21077-2023</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45057</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14571,7 +14576,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14608,14 +14613,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14628,7 +14633,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14665,14 +14670,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14685,7 +14690,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14722,14 +14727,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>44463</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14742,7 +14747,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14779,14 +14784,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14799,7 +14804,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14836,14 +14841,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14856,7 +14861,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14893,14 +14898,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>44974</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14913,7 +14918,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14950,14 +14955,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14970,7 +14975,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15014,7 +15019,7 @@
         <v>45168</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15064,14 +15069,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44389</v>
+        <v>44952</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15084,7 +15089,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15121,14 +15126,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>44389</v>
+        <v>45222</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15141,7 +15146,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15178,14 +15183,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45006</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15198,7 +15203,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15235,14 +15240,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15255,7 +15260,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15292,14 +15297,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45097</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15312,7 +15317,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15349,14 +15354,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 9573-2026</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>46071.66459490741</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15369,7 +15374,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>0.5</v>
+        <v>5.2</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15406,14 +15411,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>45113</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15426,7 +15431,7 @@
         </is>
       </c>
       <c r="G254" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -15463,14 +15468,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15483,7 +15488,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15520,14 +15525,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>44655</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15540,7 +15545,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15577,14 +15582,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15597,7 +15602,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15634,14 +15639,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15654,7 +15659,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15691,14 +15696,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15711,7 +15716,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>0.6</v>
+        <v>3.4</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15748,14 +15753,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>45167</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15768,7 +15773,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15805,14 +15810,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15825,7 +15830,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15862,14 +15867,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45042</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15882,7 +15887,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>0.9</v>
+        <v>3.3</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15919,14 +15924,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45222</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15939,7 +15944,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15976,14 +15981,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -15996,7 +16001,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>0.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16033,14 +16038,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45344</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16053,7 +16058,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>1.4</v>
+        <v>12.1</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16090,14 +16095,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16110,7 +16115,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16147,14 +16152,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>45054</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16167,7 +16172,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>3.9</v>
+        <v>8.4</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16204,14 +16209,14 @@
     <row r="268" ht="15" customHeight="1">
       <c r="A268" t="inlineStr">
         <is>
-          <t>A 11219-2024</t>
+          <t>A 13318-2024</t>
         </is>
       </c>
       <c r="B268" s="1" t="n">
-        <v>45371.58719907407</v>
+        <v>45386.75064814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16224,7 +16229,7 @@
         </is>
       </c>
       <c r="G268" t="n">
-        <v>6</v>
+        <v>2.3</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -16261,14 +16266,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16281,7 +16286,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16318,14 +16323,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 18205-2024</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45420.69327546296</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16338,7 +16343,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>0.9</v>
+        <v>5.5</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16375,14 +16380,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 507-2025</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>45664.47</v>
+        <v>44623</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16395,7 +16400,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16432,14 +16437,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>44378</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16452,7 +16457,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16489,14 +16494,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 9573-2026</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>46071.66459490741</v>
+        <v>45442</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16509,7 +16514,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>5.2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16546,14 +16551,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>44623</v>
+        <v>45442</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16566,7 +16571,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16603,14 +16608,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>44788</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16623,7 +16628,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>1.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16660,14 +16665,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>44883</v>
+        <v>45198</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16680,7 +16685,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16717,14 +16722,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>45238</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16737,7 +16742,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16774,14 +16779,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16794,7 +16799,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16831,14 +16836,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45126</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16851,7 +16856,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>4.3</v>
+        <v>1.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16888,14 +16893,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16908,7 +16913,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16945,14 +16950,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45126</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16965,7 +16970,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>1</v>
+        <v>4.3</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17002,14 +17007,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 29402-2024</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45483.66359953704</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17022,7 +17027,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17059,14 +17064,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>44974</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17079,7 +17084,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17116,14 +17121,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>45238</v>
+        <v>44974</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17136,7 +17141,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0.6</v>
+        <v>2.7</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17173,14 +17178,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45097</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17193,7 +17198,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17230,14 +17235,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>44915</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17250,7 +17255,7 @@
         </is>
       </c>
       <c r="G286" t="n">
-        <v>1.8</v>
+        <v>8.4</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17287,14 +17292,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17307,7 +17312,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>1.6</v>
+        <v>8.5</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17344,14 +17349,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17364,7 +17369,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17401,14 +17406,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44442</v>
+        <v>44883</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17421,7 +17426,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>7.5</v>
+        <v>1.5</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17458,14 +17463,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17478,7 +17483,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17515,14 +17520,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45007</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17535,7 +17540,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17572,14 +17577,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17592,7 +17597,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17629,14 +17634,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>44868</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17649,7 +17654,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17686,14 +17691,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17706,7 +17711,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17743,14 +17748,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>45132</v>
+        <v>44873</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17763,7 +17768,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>0.4</v>
+        <v>4.6</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17800,14 +17805,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>45222</v>
+        <v>44307</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17820,7 +17825,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>3.1</v>
+        <v>0.8</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17857,14 +17862,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 13318-2024</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45386.75064814815</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17877,7 +17882,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2.3</v>
+        <v>10.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17914,14 +17919,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>44389</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17934,7 +17939,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17971,14 +17976,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>45429</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17991,7 +17996,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18028,14 +18033,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>45586</v>
+        <v>44463</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18048,7 +18053,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18085,14 +18090,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18105,7 +18110,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>2.9</v>
+        <v>0.8</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18142,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18162,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18199,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>44914</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18219,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18256,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>44636</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18276,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>0.3</v>
+        <v>2.7</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18313,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18333,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18370,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>44952</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18390,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18427,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18447,7 +18452,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>6.1</v>
+        <v>0.7</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18484,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>44971</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18504,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18541,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>45442</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18598,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45442</v>
+        <v>45344</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18618,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18655,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>45092</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18675,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18712,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18732,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18769,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45042</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18789,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18826,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>44655</v>
+        <v>45344</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18846,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18883,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>45264</v>
+        <v>44728</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18902,13 +18907,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G315" t="n">
-        <v>7.9</v>
+        <v>2.4</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 16352-2025</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45750</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         </is>
       </c>
       <c r="G317" t="n">
-        <v>1.2</v>
+        <v>5.9</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -19059,14 +19059,14 @@
     <row r="318" ht="15" customHeight="1">
       <c r="A318" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B318" s="1" t="n">
-        <v>45089</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         </is>
       </c>
       <c r="G318" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -19116,14 +19116,14 @@
     <row r="319" ht="15" customHeight="1">
       <c r="A319" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B319" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19136,7 +19136,7 @@
         </is>
       </c>
       <c r="G319" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -19173,14 +19173,14 @@
     <row r="320" ht="15" customHeight="1">
       <c r="A320" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B320" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19193,7 +19193,7 @@
         </is>
       </c>
       <c r="G320" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -19237,7 +19237,7 @@
         <v>45036</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19287,14 +19287,14 @@
     <row r="322" ht="15" customHeight="1">
       <c r="A322" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B322" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19307,7 +19307,7 @@
         </is>
       </c>
       <c r="G322" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -19344,14 +19344,14 @@
     <row r="323" ht="15" customHeight="1">
       <c r="A323" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B323" s="1" t="n">
-        <v>44439</v>
+        <v>45664.47</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19364,7 +19364,7 @@
         </is>
       </c>
       <c r="G323" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -19401,14 +19401,14 @@
     <row r="324" ht="15" customHeight="1">
       <c r="A324" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B324" s="1" t="n">
-        <v>45429</v>
+        <v>45750</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="G324" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -19458,14 +19458,14 @@
     <row r="325" ht="15" customHeight="1">
       <c r="A325" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B325" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19478,7 +19478,7 @@
         </is>
       </c>
       <c r="G325" t="n">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -19515,14 +19515,14 @@
     <row r="326" ht="15" customHeight="1">
       <c r="A326" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B326" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19535,7 +19535,7 @@
         </is>
       </c>
       <c r="G326" t="n">
-        <v>7.6</v>
+        <v>0.8</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -19572,14 +19572,14 @@
     <row r="327" ht="15" customHeight="1">
       <c r="A327" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B327" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>44903</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19592,7 +19592,7 @@
         </is>
       </c>
       <c r="G327" t="n">
-        <v>1.9</v>
+        <v>4.8</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -19629,14 +19629,14 @@
     <row r="328" ht="15" customHeight="1">
       <c r="A328" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B328" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19649,7 +19649,7 @@
         </is>
       </c>
       <c r="G328" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -19686,14 +19686,14 @@
     <row r="329" ht="15" customHeight="1">
       <c r="A329" t="inlineStr">
         <is>
-          <t>A 509-2025</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B329" s="1" t="n">
-        <v>45664.47153935185</v>
+        <v>45212</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19706,7 +19706,7 @@
         </is>
       </c>
       <c r="G329" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -19743,14 +19743,14 @@
     <row r="330" ht="15" customHeight="1">
       <c r="A330" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B330" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19763,7 +19763,7 @@
         </is>
       </c>
       <c r="G330" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -19800,14 +19800,14 @@
     <row r="331" ht="15" customHeight="1">
       <c r="A331" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B331" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>44655</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -19820,7 +19820,7 @@
         </is>
       </c>
       <c r="G331" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -19857,14 +19857,14 @@
     <row r="332" ht="15" customHeight="1">
       <c r="A332" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B332" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -19877,7 +19877,7 @@
         </is>
       </c>
       <c r="G332" t="n">
-        <v>1.6</v>
+        <v>4.7</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -19914,14 +19914,14 @@
     <row r="333" ht="15" customHeight="1">
       <c r="A333" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B333" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -19934,7 +19934,7 @@
         </is>
       </c>
       <c r="G333" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -19971,14 +19971,14 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B334" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>45057</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -19991,7 +19991,7 @@
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>

--- a/Översikt MELLERUD.xlsx
+++ b/Översikt MELLERUD.xlsx
@@ -575,7 +575,7 @@
         <v>45614.55261574074</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>45734</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -761,7 +761,7 @@
         <v>44371</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -851,7 +851,7 @@
         <v>44963.56702546297</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -932,14 +932,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 25764-2025</t>
+          <t>A 44523-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45804.3400462963</v>
+        <v>44840</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -979,12 +979,100 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>4</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Skirmossa
+Dunmossa
+Skogshakmossa
+Trind spretmossa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 25764-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45804.3400462963</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>4</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Ask
 Guldlockmossa
@@ -992,119 +1080,31 @@
 Rostfläck</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 25764-2025 artfynd.xlsx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 25764-2025 karta.png", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 25764-2025 FSC-klagomål.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 25764-2025 FSC-klagomål mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 25764-2025 tillsynsbegäran.docx", "A 25764-2025")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 25764-2025 tillsynsbegäran mail.docx", "A 25764-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 44523-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44840</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>4</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Skirmossa
-Dunmossa
-Skogshakmossa
-Trind spretmossa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 44523-2022 artfynd.xlsx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 44523-2022 karta.png", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 44523-2022 FSC-klagomål.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 44523-2022 FSC-klagomål mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 44523-2022 tillsynsbegäran.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 44523-2022 tillsynsbegäran mail.docx", "A 44523-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
@@ -1115,7 +1115,7 @@
         <v>45253</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1195,14 +1195,14 @@
     <row r="9" ht="15" customHeight="1">
       <c r="A9" t="inlineStr">
         <is>
-          <t>A 1491-2025</t>
+          <t>A 19281-2025</t>
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>45670.39987268519</v>
+        <v>45769.54100694445</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1215,16 +1215,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1249,207 +1249,207 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
+          <t>Skogsklocka
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1491-2025</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45670.39987268519</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Blåsippa</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 1491-2025 artfynd.xlsx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 1491-2025 karta.png", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 1491-2025 FSC-klagomål.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 1491-2025 FSC-klagomål mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 1491-2025 tillsynsbegäran.docx", "A 1491-2025")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 1491-2025 tillsynsbegäran mail.docx", "A 1491-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
         <is>
           <t>A 17693-2023</t>
         </is>
       </c>
-      <c r="B10" s="1" t="n">
+      <c r="B11" s="1" t="n">
         <v>45037</v>
       </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="C11" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>11.3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
         <v>2</v>
       </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
         <v>2</v>
       </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="2" t="inlineStr">
+      <c r="R11" s="2" t="inlineStr">
         <is>
           <t>Bergjohannesört
 Vippärt</t>
         </is>
       </c>
-      <c r="S10">
+      <c r="S11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 17693-2023 artfynd.xlsx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="T10">
+      <c r="T11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 17693-2023 karta.png", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="V10">
+      <c r="V11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 17693-2023 FSC-klagomål.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="W10">
+      <c r="W11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 17693-2023 FSC-klagomål mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="X10">
+      <c r="X11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 17693-2023 tillsynsbegäran.docx", "A 17693-2023")</f>
         <v/>
       </c>
-      <c r="Y10">
+      <c r="Y11">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 17693-2023 tillsynsbegäran mail.docx", "A 17693-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>A 19281-2025</t>
-        </is>
-      </c>
-      <c r="B11" s="1" t="n">
-        <v>45769.54100694445</v>
-      </c>
-      <c r="C11" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2</v>
-      </c>
-      <c r="R11" s="2" t="inlineStr">
-        <is>
-          <t>Skogsklocka
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 19281-2025 artfynd.xlsx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 19281-2025 karta.png", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 19281-2025 FSC-klagomål.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 19281-2025 FSC-klagomål mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 19281-2025 tillsynsbegäran.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-      <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 19281-2025 tillsynsbegäran mail.docx", "A 19281-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44389</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1538,14 +1538,14 @@
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A 43531-2025</t>
+          <t>A 24894-2024</t>
         </is>
       </c>
       <c r="B13" s="1" t="n">
-        <v>45911</v>
+        <v>45461.57582175926</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1557,23 +1557,18 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G13" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>1</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1587,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -1597,293 +1592,298 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
+          <t>Klasefibbla</t>
+        </is>
+      </c>
+      <c r="S13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="T13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="V13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="W13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+      <c r="Y13">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>A 43531-2025</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>45911</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>8</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
           <t>Kungsfågel</t>
         </is>
       </c>
-      <c r="S13">
+      <c r="S14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 43531-2025 artfynd.xlsx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="T13">
+      <c r="T14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 43531-2025 karta.png", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="V13">
+      <c r="V14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 43531-2025 FSC-klagomål.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="W13">
+      <c r="W14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 43531-2025 FSC-klagomål mail.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="X13">
+      <c r="X14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 43531-2025 tillsynsbegäran.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="Y13">
+      <c r="Y14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 43531-2025 tillsynsbegäran mail.docx", "A 43531-2025")</f>
         <v/>
       </c>
-      <c r="Z13">
+      <c r="Z14">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/fåglar/A 43531-2025 prioriterade fågelarter.docx", "A 43531-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="inlineStr">
         <is>
           <t>A 58906-2022</t>
         </is>
       </c>
-      <c r="B14" s="1" t="n">
+      <c r="B15" s="1" t="n">
         <v>44896</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
+      <c r="C15" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>22</v>
       </c>
-      <c r="H14" t="n">
+      <c r="H15" t="n">
         <v>1</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I15" t="n">
         <v>1</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1</v>
       </c>
-      <c r="R14" s="2" t="inlineStr">
+      <c r="R15" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot</t>
         </is>
       </c>
-      <c r="S14">
+      <c r="S15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 58906-2022 artfynd.xlsx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="T14">
+      <c r="T15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 58906-2022 karta.png", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="V14">
+      <c r="V15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 58906-2022 FSC-klagomål.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="W14">
+      <c r="W15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 58906-2022 FSC-klagomål mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="X14">
+      <c r="X15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 58906-2022 tillsynsbegäran.docx", "A 58906-2022")</f>
         <v/>
       </c>
-      <c r="Y14">
+      <c r="Y15">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 58906-2022 tillsynsbegäran mail.docx", "A 58906-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="inlineStr">
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
         <is>
           <t>A 53515-2024</t>
         </is>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B16" s="1" t="n">
         <v>45614.60082175926</v>
       </c>
-      <c r="C15" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
+      <c r="C16" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>MELLERUD</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>3.5</v>
       </c>
-      <c r="H15" t="n">
+      <c r="H16" t="n">
         <v>1</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>1</v>
       </c>
-      <c r="R15" s="2" t="inlineStr">
+      <c r="R16" s="2" t="inlineStr">
         <is>
           <t>Blåsippa</t>
         </is>
       </c>
-      <c r="S15">
+      <c r="S16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 53515-2024 artfynd.xlsx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="T15">
+      <c r="T16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 53515-2024 karta.png", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="V15">
+      <c r="V16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 53515-2024 FSC-klagomål.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="W15">
+      <c r="W16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 53515-2024 FSC-klagomål mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="X15">
+      <c r="X16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 53515-2024 tillsynsbegäran.docx", "A 53515-2024")</f>
         <v/>
       </c>
-      <c r="Y15">
+      <c r="Y16">
         <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 53515-2024 tillsynsbegäran mail.docx", "A 53515-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>A 24894-2024</t>
-        </is>
-      </c>
-      <c r="B16" s="1" t="n">
-        <v>45461.57582175926</v>
-      </c>
-      <c r="C16" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>MELLERUD</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1</v>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>Klasefibbla</t>
-        </is>
-      </c>
-      <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/artfynd/A 24894-2024 artfynd.xlsx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/kartor/A 24894-2024 karta.png", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomål/A 24894-2024 FSC-klagomål.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/klagomålsmail/A 24894-2024 FSC-klagomål mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsyn/A 24894-2024 tillsynsbegäran.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-      <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1461/tillsynsmail/A 24894-2024 tillsynsbegäran mail.docx", "A 24894-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         <v>44270</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         <v>44754</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         <v>44428</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         <v>44732.56648148148</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         <v>44335</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>44615.35890046296</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         <v>44783</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
         <v>44754</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2350,7 +2350,7 @@
         <v>44284</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2407,7 +2407,7 @@
         <v>44440</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
         <v>44461</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2521,7 +2521,7 @@
         <v>44271.34182870371</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2571,14 +2571,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 72617-2021</t>
+          <t>A 36451-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44546.54055555556</v>
+        <v>44804</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2591,7 +2591,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2628,14 +2628,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 36451-2022</t>
+          <t>A 72617-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44804</v>
+        <v>44546.54055555556</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2648,7 +2648,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>44752.80542824074</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2749,7 +2749,7 @@
         <v>44484</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2806,7 +2806,7 @@
         <v>44335</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2863,7 +2863,7 @@
         <v>44335</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>44873.60039351852</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2977,7 +2977,7 @@
         <v>44879.6300462963</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3034,7 +3034,7 @@
         <v>44456</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3084,14 +3084,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 53672-2021</t>
+          <t>A 18287-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44469.45305555555</v>
+        <v>44305</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3104,7 +3104,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3141,14 +3141,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 29341-2022</t>
+          <t>A 53672-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44752.93924768519</v>
+        <v>44469.45305555555</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3161,7 +3161,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3198,14 +3198,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 18287-2021</t>
+          <t>A 29341-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44305</v>
+        <v>44752.93924768519</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3218,7 +3218,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3262,7 +3262,7 @@
         <v>44264</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3319,7 +3319,7 @@
         <v>44564.46929398148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3376,7 +3376,7 @@
         <v>44438.55181712963</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3433,7 +3433,7 @@
         <v>44460</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3490,7 +3490,7 @@
         <v>44578.94528935185</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3547,7 +3547,7 @@
         <v>44343</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3604,7 +3604,7 @@
         <v>44657</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3654,14 +3654,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 9796-2022</t>
+          <t>A 53565-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44620.36696759259</v>
+        <v>44879.65046296296</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3711,14 +3711,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 53565-2022</t>
+          <t>A 44530-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44879.65046296296</v>
+        <v>44840.44130787037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3731,7 +3731,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3768,14 +3768,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44530-2022</t>
+          <t>A 9796-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44840.44130787037</v>
+        <v>44620.36696759259</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3788,7 +3788,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3832,7 +3832,7 @@
         <v>44677</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>44750.74405092592</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
         <v>44264.70421296296</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4003,7 +4003,7 @@
         <v>44720.55946759259</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4060,7 +4060,7 @@
         <v>44438</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4117,7 +4117,7 @@
         <v>44676</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4174,7 +4174,7 @@
         <v>44817</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4231,7 +4231,7 @@
         <v>44539</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4288,7 +4288,7 @@
         <v>44704.55649305556</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4345,7 +4345,7 @@
         <v>44508</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4402,7 +4402,7 @@
         <v>44484</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4452,14 +4452,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16745-2023</t>
+          <t>A 18440-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45030.83834490741</v>
+        <v>45762.65361111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4472,7 +4472,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4516,7 +4516,7 @@
         <v>44783</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4566,14 +4566,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9152-2024</t>
+          <t>A 52269-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45357</v>
+        <v>44873</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4623,14 +4623,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 8152-2023</t>
+          <t>A 61060-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44974</v>
+        <v>44915</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4643,7 +4643,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.4</v>
+        <v>8.4</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4680,14 +4680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38655-2025</t>
+          <t>A 61061-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45884.60351851852</v>
+        <v>44915.34159722222</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4700,7 +4700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.7</v>
+        <v>8.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4737,14 +4737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 10401-2024</t>
+          <t>A 48048-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45365.68392361111</v>
+        <v>45589.53059027778</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4757,7 +4757,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>7.6</v>
+        <v>3.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4794,14 +4794,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1356-2025</t>
+          <t>A 3989-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45667.63302083333</v>
+        <v>44952</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4814,7 +4814,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4851,14 +4851,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26530-2023</t>
+          <t>A 9374-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45092</v>
+        <v>44981.35020833334</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4908,14 +4908,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 38441-2025</t>
+          <t>A 4054-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45883.64910879629</v>
+        <v>45684.61994212963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4965,14 +4965,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20850-2025</t>
+          <t>A 9152-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45777.32079861111</v>
+        <v>45357</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5022,14 +5022,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52471-2023</t>
+          <t>A 19872-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45225</v>
+        <v>45054</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5042,7 +5042,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>8.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -5079,14 +5079,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 38888-2025</t>
+          <t>A 56025-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45887.58603009259</v>
+        <v>45624.28996527778</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5099,7 +5099,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.2</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -5136,14 +5136,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21698-2025</t>
+          <t>A 16744-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45783.51045138889</v>
+        <v>45030</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5193,14 +5193,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 21678-2025</t>
+          <t>A 32549-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45783.48696759259</v>
+        <v>45513.50513888889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5213,7 +5213,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5250,14 +5250,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 18769-2021</t>
+          <t>A 51173-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44307</v>
+        <v>45212</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5270,7 +5270,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5307,14 +5307,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21689-2025</t>
+          <t>A 7152-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45783.49379629629</v>
+        <v>45344.40953703703</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5327,7 +5327,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5364,14 +5364,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 12334-2024</t>
+          <t>A 9456-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45378.69398148148</v>
+        <v>45359.5290625</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5384,7 +5384,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5421,14 +5421,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27342-2024</t>
+          <t>A 7154-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45473.34694444444</v>
+        <v>45344</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5441,7 +5441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>0.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5478,14 +5478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13319-2024</t>
+          <t>A 4416-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45386.7578125</v>
+        <v>45686.46358796296</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5498,7 +5498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5535,14 +5535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13313-2024</t>
+          <t>A 33388-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45386.73177083334</v>
+        <v>44788</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5555,7 +5555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5592,14 +5592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 40288-2025</t>
+          <t>A 46917-2022</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45895.38059027777</v>
+        <v>44851.67258101852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5612,7 +5612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5.2</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5649,14 +5649,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 22890-2025</t>
+          <t>A 24978-2022</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45790.39219907407</v>
+        <v>44728</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5669,7 +5669,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>2.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5706,14 +5706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 8667-2025</t>
+          <t>A 8155-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45712.41157407407</v>
+        <v>44974</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5763,14 +5763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 60993-2022</t>
+          <t>A 37267-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44914</v>
+        <v>45540.38583333333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5783,7 +5783,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5820,14 +5820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 23426-2025</t>
+          <t>A 14596-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45792.3609375</v>
+        <v>44655</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5840,7 +5840,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>7.3</v>
+        <v>0.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5877,14 +5877,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13079-2025</t>
+          <t>A 12157-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45734.62342592593</v>
+        <v>44636</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5897,7 +5897,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3.8</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5934,14 +5934,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10100-2025</t>
+          <t>A 13800-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45719.57890046296</v>
+        <v>45007</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5954,7 +5954,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5991,14 +5991,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 8870-2025</t>
+          <t>A 18849-2021</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45713.37015046296</v>
+        <v>44307</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6011,7 +6011,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -6048,14 +6048,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 10097-2025</t>
+          <t>A 51783-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45719.57722222222</v>
+        <v>45222</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6068,7 +6068,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -6105,14 +6105,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10182-2025</t>
+          <t>A 39535-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45719.68414351852</v>
+        <v>45551.87788194444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6125,7 +6125,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6162,14 +6162,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 10357-2025</t>
+          <t>A 7443-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45720.53015046296</v>
+        <v>44971</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6219,14 +6219,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10358-2025</t>
+          <t>A 10356-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45720.53283564815</v>
+        <v>45720.52783564815</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6239,7 +6239,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6276,14 +6276,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 27908-2025</t>
+          <t>A 17685-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45817.4727199074</v>
+        <v>45418.43171296296</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6333,14 +6333,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 33902-2021</t>
+          <t>A 493-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44378</v>
+        <v>45664.46502314815</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6353,7 +6353,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6390,14 +6390,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11213-2025</t>
+          <t>A 38667-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45726.33466435185</v>
+        <v>45884.61957175926</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6410,7 +6410,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.8</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6447,14 +6447,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 49718-2025</t>
+          <t>A 28319-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45939.76440972222</v>
+        <v>45818.63456018519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6467,7 +6467,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6504,14 +6504,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 49429-2025</t>
+          <t>A 38653-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45938.7903125</v>
+        <v>45884.59535879629</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6524,7 +6524,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>5.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6561,14 +6561,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 49449-2025</t>
+          <t>A 35603-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45938.96420138889</v>
+        <v>45531.66983796296</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6618,14 +6618,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 42723-2025</t>
+          <t>A 35605-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45908.40037037037</v>
+        <v>45531.67395833333</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6675,14 +6675,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 51436-2025</t>
+          <t>A 16656-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45950.56489583333</v>
+        <v>44672.70159722222</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6732,14 +6732,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 43406-2025</t>
+          <t>A 38888-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45911.39155092592</v>
+        <v>45887.58603009259</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6752,7 +6752,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6789,14 +6789,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45060-2021</t>
+          <t>A 59865-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44439</v>
+        <v>45639.84203703704</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6809,7 +6809,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>5.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6846,14 +6846,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 16744-2023</t>
+          <t>A 28863-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45030</v>
+        <v>45820</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6866,7 +6866,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6903,14 +6903,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 24312-2025</t>
+          <t>A 28865-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45797.51908564815</v>
+        <v>45820</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6923,7 +6923,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6960,14 +6960,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 24527-2025</t>
+          <t>A 28870-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45798.42491898148</v>
+        <v>45820</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6980,7 +6980,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>7.9</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -7017,14 +7017,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 24533-2025</t>
+          <t>A 40288-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45798.43085648148</v>
+        <v>45895.38059027777</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7037,7 +7037,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>5.8</v>
+        <v>5.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -7074,14 +7074,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 43017-2024</t>
+          <t>A 50334-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45567.39223379629</v>
+        <v>45600.7067824074</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7131,14 +7131,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 43223-2025</t>
+          <t>A 25109-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45910.48459490741</v>
+        <v>44729.45575231482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7151,7 +7151,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>8.9</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7188,14 +7188,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 1369-2025</t>
+          <t>A 53307-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45667.6443287037</v>
+        <v>45614.39129629629</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7208,7 +7208,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7245,14 +7245,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 53232-2025</t>
+          <t>A 39728-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45958.62399305555</v>
+        <v>45167.63978009259</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7302,14 +7302,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 50478-2025</t>
+          <t>A 17543-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45945</v>
+        <v>45036.49178240741</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7359,14 +7359,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 50482-2025</t>
+          <t>A 27908-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45945</v>
+        <v>45817.4727199074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7379,7 +7379,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7416,14 +7416,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 6243-2024</t>
+          <t>A 32842-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45337.69141203703</v>
+        <v>45839.56862268518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7436,7 +7436,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7473,14 +7473,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 32299-2024</t>
+          <t>A 32832-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45512.44171296297</v>
+        <v>45839.55377314815</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7493,7 +7493,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7530,14 +7530,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 43398-2025</t>
+          <t>A 53254-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45911.37747685185</v>
+        <v>44876.69381944444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7550,7 +7550,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7587,14 +7587,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43428-2025</t>
+          <t>A 18769-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45911.41943287037</v>
+        <v>44307</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7607,7 +7607,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>5.9</v>
+        <v>1.4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7644,14 +7644,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43523-2025</t>
+          <t>A 33342-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45911</v>
+        <v>45841.36143518519</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7663,13 +7663,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7706,14 +7701,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 54148-2025</t>
+          <t>A 42723-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45964.48523148148</v>
+        <v>45908.40037037037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7726,7 +7721,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>2.4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7763,14 +7758,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 25747-2025</t>
+          <t>A 1356-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45800</v>
+        <v>45667.63302083333</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7783,7 +7778,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7820,14 +7815,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 25652-2025</t>
+          <t>A 33312-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45803.61063657407</v>
+        <v>45841.33291666667</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7840,7 +7835,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7877,14 +7872,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 25635-2025</t>
+          <t>A 43428-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45803.59703703703</v>
+        <v>45911.41943287037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7897,7 +7892,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7934,14 +7929,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 44310-2025</t>
+          <t>A 43523-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45916.38266203704</v>
+        <v>45911</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7953,8 +7948,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G123" t="n">
-        <v>6.2</v>
+        <v>1.4</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7991,14 +7991,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 44020-2025</t>
+          <t>A 1921-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45915.47594907408</v>
+        <v>45671.67623842593</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8011,7 +8011,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.1</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -8048,14 +8048,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 25620-2025</t>
+          <t>A 43223-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45803.57626157408</v>
+        <v>45910.48459490741</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8068,7 +8068,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.3</v>
+        <v>8.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -8105,14 +8105,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 25623-2025</t>
+          <t>A 43398-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45803.57804398148</v>
+        <v>45911.37747685185</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8162,14 +8162,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 44042-2025</t>
+          <t>A 60996-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45915.49236111111</v>
+        <v>44914</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8219,14 +8219,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 22887-2025</t>
+          <t>A 23450-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45790.38826388889</v>
+        <v>45792.40715277778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8239,7 +8239,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8276,14 +8276,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 44600-2025</t>
+          <t>A 44020-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45917.43494212963</v>
+        <v>45915.47594907408</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>7.2</v>
+        <v>3.1</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8333,14 +8333,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 55328-2025</t>
+          <t>A 44042-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45971.33905092593</v>
+        <v>45915.49236111111</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8353,7 +8353,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8390,14 +8390,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 44546-2025</t>
+          <t>A 44600-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45917.32519675926</v>
+        <v>45917.43494212963</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8410,7 +8410,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.3</v>
+        <v>7.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8447,14 +8447,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 44573-2025</t>
+          <t>A 44546-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45917.3941550926</v>
+        <v>45917.32519675926</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8467,7 +8467,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5.5</v>
+        <v>3.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8504,14 +8504,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 37267-2024</t>
+          <t>A 44310-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45540.38583333333</v>
+        <v>45916.38266203704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8524,7 +8524,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8561,14 +8561,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 44608-2025</t>
+          <t>A 22887-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45917.44861111111</v>
+        <v>45790.38826388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8581,7 +8581,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8618,14 +8618,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 60395-2024</t>
+          <t>A 44608-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45643</v>
+        <v>45917.44861111111</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8675,14 +8675,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45991-2025</t>
+          <t>A 44573-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45924.38940972222</v>
+        <v>45917.3941550926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8695,7 +8695,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8732,14 +8732,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 8165-2023</t>
+          <t>A 15323-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44974</v>
+        <v>45400.66951388889</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8752,7 +8752,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>10.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8796,7 +8796,7 @@
         <v>45365.67574074074</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8846,14 +8846,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56349-2025</t>
+          <t>A 35351-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45974.65145833333</v>
+        <v>45854.64826388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8866,7 +8866,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8903,14 +8903,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 45935-2025</t>
+          <t>A 35347-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45923.90445601852</v>
+        <v>45854.62063657407</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8923,7 +8923,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>4.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8960,14 +8960,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17528-2024</t>
+          <t>A 35343-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45415.60586805556</v>
+        <v>45854.60905092592</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8980,7 +8980,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -9017,14 +9017,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45861-2025</t>
+          <t>A 35349-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45923.64278935185</v>
+        <v>45854.63576388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9037,7 +9037,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>10.2</v>
+        <v>3.5</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -9074,14 +9074,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52922-2024</t>
+          <t>A 11442-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45610.71511574074</v>
+        <v>45372.55474537037</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9094,7 +9094,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.2</v>
+        <v>2.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9131,14 +9131,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11848-2025</t>
+          <t>A 23821-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45728.38061342593</v>
+        <v>45455.46270833333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9151,7 +9151,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9188,14 +9188,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 46668-2025</t>
+          <t>A 45861-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45926.53071759259</v>
+        <v>45923.64278935185</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9208,7 +9208,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>10.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9245,14 +9245,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 12501-2025</t>
+          <t>A 45935-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45730.61782407408</v>
+        <v>45923.90445601852</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9265,7 +9265,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.1</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9302,14 +9302,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56026-2025</t>
+          <t>A 15227-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45973.59908564815</v>
+        <v>45744.59334490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9322,7 +9322,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9359,14 +9359,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 46872-2025</t>
+          <t>A 58861-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45929.34412037037</v>
+        <v>44903</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9379,7 +9379,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>4.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9416,14 +9416,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 17685-2024</t>
+          <t>A 26639-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45418.43171296296</v>
+        <v>45810.36209490741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9473,14 +9473,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 7228-2025</t>
+          <t>A 36141-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45702.50678240741</v>
+        <v>45866.67653935185</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9493,7 +9493,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9530,14 +9530,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 28319-2025</t>
+          <t>A 36145-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45818.63456018519</v>
+        <v>45866.84422453704</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9550,7 +9550,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9587,14 +9587,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56014-2025</t>
+          <t>A 36146-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45973</v>
+        <v>45866.8474074074</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9607,7 +9607,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9644,14 +9644,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 28863-2025</t>
+          <t>A 36048-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45820</v>
+        <v>45866.36832175926</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9664,7 +9664,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9701,14 +9701,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 33666-2023</t>
+          <t>A 10814-2024</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45132</v>
+        <v>45369</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9720,8 +9720,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G154" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9758,14 +9763,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 1921-2025</t>
+          <t>A 36138-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45671.67623842593</v>
+        <v>45866.64443287037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9778,7 +9783,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9815,14 +9820,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 28865-2025</t>
+          <t>A 11256-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45820</v>
+        <v>45726.39108796296</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9835,7 +9840,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9872,14 +9877,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 28870-2025</t>
+          <t>A 45991-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45820</v>
+        <v>45924.38940972222</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9892,7 +9897,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>7.9</v>
+        <v>4.4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9929,14 +9934,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56809-2025</t>
+          <t>A 8923-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45978.45096064815</v>
+        <v>45356</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9949,7 +9954,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9986,14 +9991,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 6283-2023</t>
+          <t>A 36123-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44965</v>
+        <v>45866.61204861111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10006,7 +10011,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -10043,14 +10048,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 1883-2023</t>
+          <t>A 39942-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44939.32333333333</v>
+        <v>45167</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10063,7 +10068,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -10100,14 +10105,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 32832-2024</t>
+          <t>A 46872-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45516.60021990741</v>
+        <v>45929.34412037037</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10120,7 +10125,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10157,14 +10162,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 496-2025</t>
+          <t>A 46668-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45664.46601851852</v>
+        <v>45926.53071759259</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10177,7 +10182,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10214,14 +10219,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47167-2024</t>
+          <t>A 3998-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45586</v>
+        <v>45684.56761574074</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10234,7 +10239,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10271,14 +10276,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 53317-2024</t>
+          <t>A 3999-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45614.39809027778</v>
+        <v>45684.56788194444</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10291,7 +10296,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.3</v>
+        <v>12.1</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10328,14 +10333,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 53318-2024</t>
+          <t>A 4016-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45614.40048611111</v>
+        <v>45684.58253472222</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10385,14 +10390,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 43349-2024</t>
+          <t>A 36963-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45568.55829861111</v>
+        <v>45874.63193287037</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10405,7 +10410,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10442,14 +10447,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 43353-2024</t>
+          <t>A 32832-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45568.56689814815</v>
+        <v>45516.60021990741</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10462,7 +10467,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10499,14 +10504,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 10356-2025</t>
+          <t>A 32384-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45720.52783564815</v>
+        <v>45120.61326388889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10519,7 +10524,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10556,14 +10561,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 8169-2023</t>
+          <t>A 52471-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44974</v>
+        <v>45225</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10576,7 +10581,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10613,14 +10618,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 7152-2024</t>
+          <t>A 38441-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45344.40953703703</v>
+        <v>45883.64910879629</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10633,7 +10638,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10670,14 +10675,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 32842-2025</t>
+          <t>A 38040-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45839.56862268518</v>
+        <v>45882.38126157408</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10690,7 +10695,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>6.1</v>
+        <v>2</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10727,14 +10732,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 32832-2025</t>
+          <t>A 49429-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45839.55377314815</v>
+        <v>45938.7903125</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10747,7 +10752,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10784,14 +10789,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 33342-2025</t>
+          <t>A 49449-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45841.36143518519</v>
+        <v>45938.96420138889</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10804,7 +10809,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10841,14 +10846,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 59269-2025</t>
+          <t>A 38663-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45988.68052083333</v>
+        <v>45884.6134375</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10861,7 +10866,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10898,14 +10903,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 33312-2025</t>
+          <t>A 49718-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45841.33291666667</v>
+        <v>45939.76440972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10918,7 +10923,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10955,14 +10960,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 46076-2021</t>
+          <t>A 4023-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44442</v>
+        <v>45684.5937037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10975,7 +10980,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>7.5</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -11012,14 +11017,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59808-2025</t>
+          <t>A 4027-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45992.62931712963</v>
+        <v>45684.59524305556</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11032,7 +11037,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -11069,14 +11074,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 59806-2025</t>
+          <t>A 31122-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45992.62770833333</v>
+        <v>45113</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11089,7 +11094,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11126,14 +11131,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 23450-2025</t>
+          <t>A 38655-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45792.40715277778</v>
+        <v>45884.60351851852</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11146,7 +11151,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11183,14 +11188,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 59804-2025</t>
+          <t>A 6283-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45992.62403935185</v>
+        <v>44965</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11203,7 +11208,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11240,14 +11245,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 59723-2025</t>
+          <t>A 40064-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45992</v>
+        <v>45168.8190625</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11260,7 +11265,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>12.3</v>
+        <v>1.3</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11297,14 +11302,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 59802-2025</t>
+          <t>A 34415-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45992.62133101852</v>
+        <v>45525.48469907408</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11317,7 +11322,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>4.3</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11354,14 +11359,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 334-2023</t>
+          <t>A 32304-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44929.46462962963</v>
+        <v>45512.45240740741</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11374,7 +11379,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11411,14 +11416,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 35343-2025</t>
+          <t>A 46761-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45854.60905092592</v>
+        <v>45198</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11431,7 +11436,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11468,14 +11473,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 35349-2025</t>
+          <t>A 43406-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45854.63576388889</v>
+        <v>45911.39155092592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11488,7 +11493,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11525,14 +11530,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 35351-2025</t>
+          <t>A 51436-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45854.64826388889</v>
+        <v>45950.56489583333</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11545,7 +11550,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11582,14 +11587,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 35347-2025</t>
+          <t>A 21077-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45854.62063657407</v>
+        <v>45057</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11602,7 +11607,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11639,14 +11644,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 11442-2024</t>
+          <t>A 50336-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45372.55474537037</v>
+        <v>45600.71142361111</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11659,7 +11664,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11696,14 +11701,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 53307-2024</t>
+          <t>A 22313-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45614.39129629629</v>
+        <v>45070.47862268519</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11716,7 +11721,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11753,14 +11758,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 1827-2026</t>
+          <t>A 52128-2021</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46035.37334490741</v>
+        <v>44463</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11773,7 +11778,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11810,14 +11815,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 1830-2026</t>
+          <t>A 17160-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>46035.37927083333</v>
+        <v>45412.71053240741</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11830,7 +11835,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11867,14 +11872,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 23821-2024</t>
+          <t>A 48256-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45455.46270833333</v>
+        <v>44858.47505787037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11887,7 +11892,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11924,14 +11929,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13523-2023</t>
+          <t>A 1369-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45006</v>
+        <v>45667.6443287037</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11944,7 +11949,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11981,14 +11986,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 10814-2024</t>
+          <t>A 50478-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45369</v>
+        <v>45945</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12000,13 +12005,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G194" t="n">
-        <v>6.6</v>
+        <v>1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -12043,14 +12043,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36141-2025</t>
+          <t>A 50482-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45866.67653935185</v>
+        <v>45945</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12063,7 +12063,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12100,14 +12100,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 26639-2025</t>
+          <t>A 53232-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45810.36209490741</v>
+        <v>45958.62399305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12157,14 +12157,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15227-2025</t>
+          <t>A 8152-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45744.59334490741</v>
+        <v>44974</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12177,7 +12177,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12214,14 +12214,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36048-2025</t>
+          <t>A 17064-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45866.36832175926</v>
+        <v>45755.61197916666</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12234,7 +12234,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12271,14 +12271,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 36138-2025</t>
+          <t>A 40065-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45866.64443287037</v>
+        <v>45168</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12291,7 +12291,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12328,14 +12328,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36123-2025</t>
+          <t>A 54148-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45866.61204861111</v>
+        <v>45964.48523148148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12348,7 +12348,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12385,14 +12385,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3992-2023</t>
+          <t>A 36075-2021</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44952</v>
+        <v>44389</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12405,7 +12405,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12442,14 +12442,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 53310-2024</t>
+          <t>A 36076-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45614.3945949074</v>
+        <v>44389</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12462,7 +12462,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12499,14 +12499,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 36145-2025</t>
+          <t>A 13523-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45866.84422453704</v>
+        <v>45006</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12519,7 +12519,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12556,14 +12556,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 36146-2025</t>
+          <t>A 45834-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45866.8474074074</v>
+        <v>45195.56408564815</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12613,14 +12613,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 60203-2025</t>
+          <t>A 51463-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45994</v>
+        <v>45221.58049768519</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12633,7 +12633,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12670,14 +12670,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 36963-2025</t>
+          <t>A 55328-2025</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45874.63193287037</v>
+        <v>45971.33905092593</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12690,7 +12690,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12727,14 +12727,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 40064-2023</t>
+          <t>A 8492-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45168.8190625</v>
+        <v>44613.3828125</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12747,7 +12747,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12784,14 +12784,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 26428-2022</t>
+          <t>A 5509-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44736.31748842593</v>
+        <v>45693.39619212963</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12804,7 +12804,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12841,14 +12841,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 61177-2025</t>
+          <t>A 56014-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>46000.57814814815</v>
+        <v>45973</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12861,7 +12861,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.9</v>
+        <v>8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12898,14 +12898,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61180-2025</t>
+          <t>A 56026-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>46000.58282407407</v>
+        <v>45973.59908564815</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12918,7 +12918,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12955,14 +12955,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 8923-2024</t>
+          <t>A 48879-2024</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45356</v>
+        <v>45594.32021990741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12975,7 +12975,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -13012,14 +13012,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 4027-2025</t>
+          <t>A 56349-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45684.59524305556</v>
+        <v>45974.65145833333</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13032,7 +13032,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -13069,14 +13069,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 38040-2025</t>
+          <t>A 5647-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45882.38126157408</v>
+        <v>44960.6078125</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13089,7 +13089,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13126,14 +13126,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 25109-2022</t>
+          <t>A 56809-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44729.45575231482</v>
+        <v>45978.45096064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13183,14 +13183,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 3178-2026</t>
+          <t>A 12334-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>46041.4453587963</v>
+        <v>45378.69398148148</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13240,14 +13240,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 3250-2026</t>
+          <t>A 7157-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>46041.57758101852</v>
+        <v>45344</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13260,7 +13260,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13297,14 +13297,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 36096-2021</t>
+          <t>A 12713-2022</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44389</v>
+        <v>44641.64945601852</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13317,7 +13317,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13354,14 +13354,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38653-2025</t>
+          <t>A 11219-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45884.59535879629</v>
+        <v>45371.58719907407</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13374,7 +13374,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13411,14 +13411,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 38663-2025</t>
+          <t>A 59269-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45884.6134375</v>
+        <v>45988.68052083333</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13431,7 +13431,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13468,14 +13468,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 38667-2025</t>
+          <t>A 59804-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45884.61957175926</v>
+        <v>45992.62403935185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13488,7 +13488,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>4.1</v>
+        <v>2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13525,14 +13525,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 36075-2021</t>
+          <t>A 18205-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44389</v>
+        <v>45420.69327546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13545,7 +13545,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13582,14 +13582,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 36076-2021</t>
+          <t>A 1827-2026</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44389</v>
+        <v>46035.37334490741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13602,7 +13602,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.9</v>
+        <v>2.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13639,14 +13639,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 17064-2025</t>
+          <t>A 1830-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45755.61197916666</v>
+        <v>46035.37927083333</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13659,7 +13659,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13696,14 +13696,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 25399-2023</t>
+          <t>A 59802-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45089</v>
+        <v>45992.62133101852</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13716,7 +13716,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13753,14 +13753,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 50441-2023</t>
+          <t>A 59808-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45216.708125</v>
+        <v>45992.62931712963</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13773,7 +13773,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13810,14 +13810,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 32304-2024</t>
+          <t>A 59723-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45512.45240740741</v>
+        <v>45992</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13830,7 +13830,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.2</v>
+        <v>12.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13867,14 +13867,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 4416-2025</t>
+          <t>A 59806-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45686.46358796296</v>
+        <v>45992.62770833333</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13924,14 +13924,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 5324-2026</t>
+          <t>A 60203-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>46050.39023148148</v>
+        <v>45994</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13944,7 +13944,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13981,14 +13981,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 15971-2023</t>
+          <t>A 507-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45022.71006944445</v>
+        <v>45664.47</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14001,7 +14001,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -14038,14 +14038,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 53254-2022</t>
+          <t>A 33902-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44876.69381944444</v>
+        <v>44378</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14058,7 +14058,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14095,14 +14095,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 63249-2025</t>
+          <t>A 3178-2026</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>46010.54299768519</v>
+        <v>46041.4453587963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14115,7 +14115,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14152,14 +14152,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 50336-2024</t>
+          <t>A 3250-2026</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45600.71142361111</v>
+        <v>46041.57758101852</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14172,7 +14172,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14209,14 +14209,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 73351-2021</t>
+          <t>A 61177-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44551.39665509259</v>
+        <v>46000.57814814815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14229,7 +14229,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>6.1</v>
+        <v>0.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14266,14 +14266,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 3201-2026</t>
+          <t>A 61180-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46041.48054398148</v>
+        <v>46000.58282407407</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14286,7 +14286,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14323,14 +14323,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 51916-2022</t>
+          <t>A 10428-2022</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>44868</v>
+        <v>44623</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14343,7 +14343,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14380,14 +14380,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 35603-2024</t>
+          <t>A 496-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45531.66983796296</v>
+        <v>45664.46601851852</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14400,7 +14400,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14437,14 +14437,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 35605-2024</t>
+          <t>A 54796-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45531.67395833333</v>
+        <v>44883</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14457,7 +14457,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14494,14 +14494,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 61811-2023</t>
+          <t>A 53573-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45264</v>
+        <v>45230.49935185185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14513,13 +14513,8 @@
           <t>MELLERUD</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>7.9</v>
+        <v>3.8</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14556,14 +14551,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 7117-2026</t>
+          <t>A 35709-2021</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46058.3778125</v>
+        <v>44386.50672453704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14576,7 +14571,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>2.5</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14613,14 +14608,14 @@
     <row r="240" ht="15" customHeight="1">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 7125-2026</t>
+          <t>A 34116-2023</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>46058.38688657407</v>
+        <v>45126</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14633,7 +14628,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>0.9</v>
+        <v>4.3</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -14670,14 +14665,14 @@
     <row r="241" ht="15" customHeight="1">
       <c r="A241" t="inlineStr">
         <is>
-          <t>A 7047-2026</t>
+          <t>A 5324-2026</t>
         </is>
       </c>
       <c r="B241" s="1" t="n">
-        <v>46057.71314814815</v>
+        <v>46050.39023148148</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14690,7 +14685,7 @@
         </is>
       </c>
       <c r="G241" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -14727,14 +14722,14 @@
     <row r="242" ht="15" customHeight="1">
       <c r="A242" t="inlineStr">
         <is>
-          <t>A 7120-2026</t>
+          <t>A 1883-2023</t>
         </is>
       </c>
       <c r="B242" s="1" t="n">
-        <v>46058.38006944444</v>
+        <v>44939.32333333333</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14747,7 +14742,7 @@
         </is>
       </c>
       <c r="G242" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -14784,14 +14779,14 @@
     <row r="243" ht="15" customHeight="1">
       <c r="A243" t="inlineStr">
         <is>
-          <t>A 34415-2024</t>
+          <t>A 1886-2023</t>
         </is>
       </c>
       <c r="B243" s="1" t="n">
-        <v>45525.48469907408</v>
+        <v>44939.33954861111</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14804,7 +14799,7 @@
         </is>
       </c>
       <c r="G243" t="n">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -14841,14 +14836,14 @@
     <row r="244" ht="15" customHeight="1">
       <c r="A244" t="inlineStr">
         <is>
-          <t>A 63859-2025</t>
+          <t>A 3201-2026</t>
         </is>
       </c>
       <c r="B244" s="1" t="n">
-        <v>46020.48857638889</v>
+        <v>46041.48054398148</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -14861,7 +14856,7 @@
         </is>
       </c>
       <c r="G244" t="n">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -14898,14 +14893,14 @@
     <row r="245" ht="15" customHeight="1">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A 63857-2025</t>
+          <t>A 29402-2024</t>
         </is>
       </c>
       <c r="B245" s="1" t="n">
-        <v>46020.48369212963</v>
+        <v>45483.66359953704</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -14918,7 +14913,7 @@
         </is>
       </c>
       <c r="G245" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -14955,14 +14950,14 @@
     <row r="246" ht="15" customHeight="1">
       <c r="A246" t="inlineStr">
         <is>
-          <t>A 33092-2023</t>
+          <t>A 63249-2025</t>
         </is>
       </c>
       <c r="B246" s="1" t="n">
-        <v>45126.51414351852</v>
+        <v>46010.54299768519</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -14975,7 +14970,7 @@
         </is>
       </c>
       <c r="G246" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -15012,14 +15007,14 @@
     <row r="247" ht="15" customHeight="1">
       <c r="A247" t="inlineStr">
         <is>
-          <t>A 40065-2023</t>
+          <t>A 8169-2023</t>
         </is>
       </c>
       <c r="B247" s="1" t="n">
-        <v>45168</v>
+        <v>44974</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15032,7 +15027,7 @@
         </is>
       </c>
       <c r="G247" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -15069,14 +15064,14 @@
     <row r="248" ht="15" customHeight="1">
       <c r="A248" t="inlineStr">
         <is>
-          <t>A 3989-2023</t>
+          <t>A 56607-2023</t>
         </is>
       </c>
       <c r="B248" s="1" t="n">
-        <v>44952</v>
+        <v>45238</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15089,7 +15084,7 @@
         </is>
       </c>
       <c r="G248" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -15126,14 +15121,14 @@
     <row r="249" ht="15" customHeight="1">
       <c r="A249" t="inlineStr">
         <is>
-          <t>A 51783-2023</t>
+          <t>A 27510-2023</t>
         </is>
       </c>
       <c r="B249" s="1" t="n">
-        <v>45222</v>
+        <v>45097</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15146,7 +15141,7 @@
         </is>
       </c>
       <c r="G249" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -15183,14 +15178,14 @@
     <row r="250" ht="15" customHeight="1">
       <c r="A250" t="inlineStr">
         <is>
-          <t>A 16746-2023</t>
+          <t>A 334-2023</t>
         </is>
       </c>
       <c r="B250" s="1" t="n">
-        <v>45030.84126157407</v>
+        <v>44929.46462962963</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15203,7 +15198,7 @@
         </is>
       </c>
       <c r="G250" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -15240,14 +15235,14 @@
     <row r="251" ht="15" customHeight="1">
       <c r="A251" t="inlineStr">
         <is>
-          <t>A 32498-2024</t>
+          <t>A 7047-2026</t>
         </is>
       </c>
       <c r="B251" s="1" t="n">
-        <v>45513.42944444445</v>
+        <v>46057.71314814815</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15260,7 +15255,7 @@
         </is>
       </c>
       <c r="G251" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -15297,14 +15292,14 @@
     <row r="252" ht="15" customHeight="1">
       <c r="A252" t="inlineStr">
         <is>
-          <t>A 27510-2023</t>
+          <t>A 4009-2025</t>
         </is>
       </c>
       <c r="B252" s="1" t="n">
-        <v>45097</v>
+        <v>45684.57601851852</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15317,7 +15312,7 @@
         </is>
       </c>
       <c r="G252" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -15354,14 +15349,14 @@
     <row r="253" ht="15" customHeight="1">
       <c r="A253" t="inlineStr">
         <is>
-          <t>A 9573-2026</t>
+          <t>A 32299-2024</t>
         </is>
       </c>
       <c r="B253" s="1" t="n">
-        <v>46071.66459490741</v>
+        <v>45512.44171296297</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15374,7 +15369,7 @@
         </is>
       </c>
       <c r="G253" t="n">
-        <v>5.2</v>
+        <v>3.1</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -15411,14 +15406,14 @@
     <row r="254" ht="15" customHeight="1">
       <c r="A254" t="inlineStr">
         <is>
-          <t>A 31122-2023</t>
+          <t>A 7117-2026</t>
         </is>
       </c>
       <c r="B254" s="1" t="n">
-        <v>45113</v>
+        <v>46058.3778125</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15468,14 +15463,14 @@
     <row r="255" ht="15" customHeight="1">
       <c r="A255" t="inlineStr">
         <is>
-          <t>A 22313-2023</t>
+          <t>A 7125-2026</t>
         </is>
       </c>
       <c r="B255" s="1" t="n">
-        <v>45070.47862268519</v>
+        <v>46058.38688657407</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15488,7 +15483,7 @@
         </is>
       </c>
       <c r="G255" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -15525,14 +15520,14 @@
     <row r="256" ht="15" customHeight="1">
       <c r="A256" t="inlineStr">
         <is>
-          <t>A 14568-2022</t>
+          <t>A 7120-2026</t>
         </is>
       </c>
       <c r="B256" s="1" t="n">
-        <v>44655</v>
+        <v>46058.38006944444</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15545,7 +15540,7 @@
         </is>
       </c>
       <c r="G256" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -15582,14 +15577,14 @@
     <row r="257" ht="15" customHeight="1">
       <c r="A257" t="inlineStr">
         <is>
-          <t>A 48048-2024</t>
+          <t>A 46076-2021</t>
         </is>
       </c>
       <c r="B257" s="1" t="n">
-        <v>45589.53059027778</v>
+        <v>44442</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15602,7 +15597,7 @@
         </is>
       </c>
       <c r="G257" t="n">
-        <v>3.9</v>
+        <v>7.5</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -15639,14 +15634,14 @@
     <row r="258" ht="15" customHeight="1">
       <c r="A258" t="inlineStr">
         <is>
-          <t>A 32384-2023</t>
+          <t>A 63859-2025</t>
         </is>
       </c>
       <c r="B258" s="1" t="n">
-        <v>45120.61326388889</v>
+        <v>46020.48857638889</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15659,7 +15654,7 @@
         </is>
       </c>
       <c r="G258" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -15696,14 +15691,14 @@
     <row r="259" ht="15" customHeight="1">
       <c r="A259" t="inlineStr">
         <is>
-          <t>A 13073-2025</t>
+          <t>A 63857-2025</t>
         </is>
       </c>
       <c r="B259" s="1" t="n">
-        <v>45734.61699074074</v>
+        <v>46020.48369212963</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15716,7 +15711,7 @@
         </is>
       </c>
       <c r="G259" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -15753,14 +15748,14 @@
     <row r="260" ht="15" customHeight="1">
       <c r="A260" t="inlineStr">
         <is>
-          <t>A 39942-2023</t>
+          <t>A 32498-2024</t>
         </is>
       </c>
       <c r="B260" s="1" t="n">
-        <v>45167</v>
+        <v>45513.42944444445</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15773,7 +15768,7 @@
         </is>
       </c>
       <c r="G260" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -15810,14 +15805,14 @@
     <row r="261" ht="15" customHeight="1">
       <c r="A261" t="inlineStr">
         <is>
-          <t>A 12713-2022</t>
+          <t>A 43349-2024</t>
         </is>
       </c>
       <c r="B261" s="1" t="n">
-        <v>44641.64945601852</v>
+        <v>45568.55829861111</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -15830,7 +15825,7 @@
         </is>
       </c>
       <c r="G261" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -15867,14 +15862,14 @@
     <row r="262" ht="15" customHeight="1">
       <c r="A262" t="inlineStr">
         <is>
-          <t>A 18854-2023</t>
+          <t>A 43353-2024</t>
         </is>
       </c>
       <c r="B262" s="1" t="n">
-        <v>45042</v>
+        <v>45568.56689814815</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -15887,7 +15882,7 @@
         </is>
       </c>
       <c r="G262" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -15924,14 +15919,14 @@
     <row r="263" ht="15" customHeight="1">
       <c r="A263" t="inlineStr">
         <is>
-          <t>A 51785-2023</t>
+          <t>A 51916-2022</t>
         </is>
       </c>
       <c r="B263" s="1" t="n">
-        <v>45222</v>
+        <v>44868</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -15944,7 +15939,7 @@
         </is>
       </c>
       <c r="G263" t="n">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -15981,14 +15976,14 @@
     <row r="264" ht="15" customHeight="1">
       <c r="A264" t="inlineStr">
         <is>
-          <t>A 3998-2025</t>
+          <t>A 13075-2025</t>
         </is>
       </c>
       <c r="B264" s="1" t="n">
-        <v>45684.56761574074</v>
+        <v>45734.61987268519</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16001,7 +15996,7 @@
         </is>
       </c>
       <c r="G264" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -16038,14 +16033,14 @@
     <row r="265" ht="15" customHeight="1">
       <c r="A265" t="inlineStr">
         <is>
-          <t>A 3999-2025</t>
+          <t>A 9573-2026</t>
         </is>
       </c>
       <c r="B265" s="1" t="n">
-        <v>45684.56788194444</v>
+        <v>46071.66459490741</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16058,7 +16053,7 @@
         </is>
       </c>
       <c r="G265" t="n">
-        <v>12.1</v>
+        <v>5.2</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -16095,14 +16090,14 @@
     <row r="266" ht="15" customHeight="1">
       <c r="A266" t="inlineStr">
         <is>
-          <t>A 4016-2025</t>
+          <t>A 33666-2023</t>
         </is>
       </c>
       <c r="B266" s="1" t="n">
-        <v>45684.58253472222</v>
+        <v>45132</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16115,7 +16110,7 @@
         </is>
       </c>
       <c r="G266" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -16152,14 +16147,14 @@
     <row r="267" ht="15" customHeight="1">
       <c r="A267" t="inlineStr">
         <is>
-          <t>A 19872-2023</t>
+          <t>A 51785-2023</t>
         </is>
       </c>
       <c r="B267" s="1" t="n">
-        <v>45054</v>
+        <v>45222</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16172,7 +16167,7 @@
         </is>
       </c>
       <c r="G267" t="n">
-        <v>8.4</v>
+        <v>3.1</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -16216,7 +16211,7 @@
         <v>45386.75064814815</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16266,14 +16261,14 @@
     <row r="269" ht="15" customHeight="1">
       <c r="A269" t="inlineStr">
         <is>
-          <t>A 8492-2022</t>
+          <t>A 36096-2021</t>
         </is>
       </c>
       <c r="B269" s="1" t="n">
-        <v>44613.3828125</v>
+        <v>44389</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16286,7 +16281,7 @@
         </is>
       </c>
       <c r="G269" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -16323,14 +16318,14 @@
     <row r="270" ht="15" customHeight="1">
       <c r="A270" t="inlineStr">
         <is>
-          <t>A 50334-2024</t>
+          <t>A 53310-2024</t>
         </is>
       </c>
       <c r="B270" s="1" t="n">
-        <v>45600.7067824074</v>
+        <v>45614.3945949074</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16343,7 +16338,7 @@
         </is>
       </c>
       <c r="G270" t="n">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -16380,14 +16375,14 @@
     <row r="271" ht="15" customHeight="1">
       <c r="A271" t="inlineStr">
         <is>
-          <t>A 10428-2022</t>
+          <t>A 47167-2024</t>
         </is>
       </c>
       <c r="B271" s="1" t="n">
-        <v>44623</v>
+        <v>45586</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16400,7 +16395,7 @@
         </is>
       </c>
       <c r="G271" t="n">
-        <v>1.9</v>
+        <v>4.1</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -16437,14 +16432,14 @@
     <row r="272" ht="15" customHeight="1">
       <c r="A272" t="inlineStr">
         <is>
-          <t>A 4009-2025</t>
+          <t>A 33092-2023</t>
         </is>
       </c>
       <c r="B272" s="1" t="n">
-        <v>45684.57601851852</v>
+        <v>45126.51414351852</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16457,7 +16452,7 @@
         </is>
       </c>
       <c r="G272" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -16494,14 +16489,14 @@
     <row r="273" ht="15" customHeight="1">
       <c r="A273" t="inlineStr">
         <is>
-          <t>A 21618-2024</t>
+          <t>A 55391-2023</t>
         </is>
       </c>
       <c r="B273" s="1" t="n">
-        <v>45442</v>
+        <v>45238.37284722222</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16514,7 +16509,7 @@
         </is>
       </c>
       <c r="G273" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -16551,14 +16546,14 @@
     <row r="274" ht="15" customHeight="1">
       <c r="A274" t="inlineStr">
         <is>
-          <t>A 21620-2024</t>
+          <t>A 15971-2023</t>
         </is>
       </c>
       <c r="B274" s="1" t="n">
-        <v>45442</v>
+        <v>45022.71006944445</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16571,7 +16566,7 @@
         </is>
       </c>
       <c r="G274" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -16608,14 +16603,14 @@
     <row r="275" ht="15" customHeight="1">
       <c r="A275" t="inlineStr">
         <is>
-          <t>A 33388-2022</t>
+          <t>A 53317-2024</t>
         </is>
       </c>
       <c r="B275" s="1" t="n">
-        <v>44788</v>
+        <v>45614.39809027778</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16628,7 +16623,7 @@
         </is>
       </c>
       <c r="G275" t="n">
-        <v>8.699999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -16665,14 +16660,14 @@
     <row r="276" ht="15" customHeight="1">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A 46761-2023</t>
+          <t>A 53318-2024</t>
         </is>
       </c>
       <c r="B276" s="1" t="n">
-        <v>45198</v>
+        <v>45614.40048611111</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16685,7 +16680,7 @@
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -16722,14 +16717,14 @@
     <row r="277" ht="15" customHeight="1">
       <c r="A277" t="inlineStr">
         <is>
-          <t>A 56607-2023</t>
+          <t>A 3992-2023</t>
         </is>
       </c>
       <c r="B277" s="1" t="n">
-        <v>45238</v>
+        <v>44952</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16742,7 +16737,7 @@
         </is>
       </c>
       <c r="G277" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -16779,14 +16774,14 @@
     <row r="278" ht="15" customHeight="1">
       <c r="A278" t="inlineStr">
         <is>
-          <t>A 16656-2022</t>
+          <t>A 73351-2021</t>
         </is>
       </c>
       <c r="B278" s="1" t="n">
-        <v>44672.70159722222</v>
+        <v>44551.39665509259</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16799,7 +16794,7 @@
         </is>
       </c>
       <c r="G278" t="n">
-        <v>1.2</v>
+        <v>6.1</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -16836,14 +16831,14 @@
     <row r="279" ht="15" customHeight="1">
       <c r="A279" t="inlineStr">
         <is>
-          <t>A 5509-2025</t>
+          <t>A 26428-2022</t>
         </is>
       </c>
       <c r="B279" s="1" t="n">
-        <v>45693.39619212963</v>
+        <v>44736.31748842593</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -16856,7 +16851,7 @@
         </is>
       </c>
       <c r="G279" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -16893,14 +16888,14 @@
     <row r="280" ht="15" customHeight="1">
       <c r="A280" t="inlineStr">
         <is>
-          <t>A 51463-2023</t>
+          <t>A 21618-2024</t>
         </is>
       </c>
       <c r="B280" s="1" t="n">
-        <v>45221.58049768519</v>
+        <v>45442</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -16913,7 +16908,7 @@
         </is>
       </c>
       <c r="G280" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -16950,14 +16945,14 @@
     <row r="281" ht="15" customHeight="1">
       <c r="A281" t="inlineStr">
         <is>
-          <t>A 34116-2023</t>
+          <t>A 21620-2024</t>
         </is>
       </c>
       <c r="B281" s="1" t="n">
-        <v>45126</v>
+        <v>45442</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -16970,7 +16965,7 @@
         </is>
       </c>
       <c r="G281" t="n">
-        <v>4.3</v>
+        <v>1.1</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -17007,14 +17002,14 @@
     <row r="282" ht="15" customHeight="1">
       <c r="A282" t="inlineStr">
         <is>
-          <t>A 56025-2024</t>
+          <t>A 26530-2023</t>
         </is>
       </c>
       <c r="B282" s="1" t="n">
-        <v>45624.28996527778</v>
+        <v>45092</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17027,7 +17022,7 @@
         </is>
       </c>
       <c r="G282" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -17064,14 +17059,14 @@
     <row r="283" ht="15" customHeight="1">
       <c r="A283" t="inlineStr">
         <is>
-          <t>A 11256-2025</t>
+          <t>A 6243-2024</t>
         </is>
       </c>
       <c r="B283" s="1" t="n">
-        <v>45726.39108796296</v>
+        <v>45337.69141203703</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17084,7 +17079,7 @@
         </is>
       </c>
       <c r="G283" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -17121,14 +17116,14 @@
     <row r="284" ht="15" customHeight="1">
       <c r="A284" t="inlineStr">
         <is>
-          <t>A 8155-2023</t>
+          <t>A 18854-2023</t>
         </is>
       </c>
       <c r="B284" s="1" t="n">
-        <v>44974</v>
+        <v>45042</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17141,7 +17136,7 @@
         </is>
       </c>
       <c r="G284" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -17178,14 +17173,14 @@
     <row r="285" ht="15" customHeight="1">
       <c r="A285" t="inlineStr">
         <is>
-          <t>A 53573-2023</t>
+          <t>A 14568-2022</t>
         </is>
       </c>
       <c r="B285" s="1" t="n">
-        <v>45230.49935185185</v>
+        <v>44655</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17198,7 +17193,7 @@
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -17235,14 +17230,14 @@
     <row r="286" ht="15" customHeight="1">
       <c r="A286" t="inlineStr">
         <is>
-          <t>A 61060-2022</t>
+          <t>A 61811-2023</t>
         </is>
       </c>
       <c r="B286" s="1" t="n">
-        <v>44915</v>
+        <v>45264</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17254,8 +17249,13 @@
           <t>MELLERUD</t>
         </is>
       </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G286" t="n">
-        <v>8.4</v>
+        <v>7.9</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -17292,14 +17292,14 @@
     <row r="287" ht="15" customHeight="1">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A 61061-2022</t>
+          <t>A 13073-2025</t>
         </is>
       </c>
       <c r="B287" s="1" t="n">
-        <v>44915.34159722222</v>
+        <v>45734.61699074074</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17312,7 +17312,7 @@
         </is>
       </c>
       <c r="G287" t="n">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -17349,14 +17349,14 @@
     <row r="288" ht="15" customHeight="1">
       <c r="A288" t="inlineStr">
         <is>
-          <t>A 55391-2023</t>
+          <t>A 16352-2025</t>
         </is>
       </c>
       <c r="B288" s="1" t="n">
-        <v>45238.37284722222</v>
+        <v>45750</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17369,7 +17369,7 @@
         </is>
       </c>
       <c r="G288" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -17406,14 +17406,14 @@
     <row r="289" ht="15" customHeight="1">
       <c r="A289" t="inlineStr">
         <is>
-          <t>A 54796-2022</t>
+          <t>A 25399-2023</t>
         </is>
       </c>
       <c r="B289" s="1" t="n">
-        <v>44883</v>
+        <v>45089</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17426,7 +17426,7 @@
         </is>
       </c>
       <c r="G289" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -17463,14 +17463,14 @@
     <row r="290" ht="15" customHeight="1">
       <c r="A290" t="inlineStr">
         <is>
-          <t>A 13075-2025</t>
+          <t>A 23238-2024</t>
         </is>
       </c>
       <c r="B290" s="1" t="n">
-        <v>45734.61987268519</v>
+        <v>45453.33143518519</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17483,7 +17483,7 @@
         </is>
       </c>
       <c r="G290" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -17520,14 +17520,14 @@
     <row r="291" ht="15" customHeight="1">
       <c r="A291" t="inlineStr">
         <is>
-          <t>A 13800-2023</t>
+          <t>A 53270-2024</t>
         </is>
       </c>
       <c r="B291" s="1" t="n">
-        <v>45007</v>
+        <v>45614.36040509259</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17540,7 +17540,7 @@
         </is>
       </c>
       <c r="G291" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -17577,14 +17577,14 @@
     <row r="292" ht="15" customHeight="1">
       <c r="A292" t="inlineStr">
         <is>
-          <t>A 48879-2024</t>
+          <t>A 17538-2023</t>
         </is>
       </c>
       <c r="B292" s="1" t="n">
-        <v>45594.32021990741</v>
+        <v>45036</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17597,7 +17597,7 @@
         </is>
       </c>
       <c r="G292" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -17634,14 +17634,14 @@
     <row r="293" ht="15" customHeight="1">
       <c r="A293" t="inlineStr">
         <is>
-          <t>A 4023-2025</t>
+          <t>A 13319-2024</t>
         </is>
       </c>
       <c r="B293" s="1" t="n">
-        <v>45684.5937037037</v>
+        <v>45386.7578125</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17654,7 +17654,7 @@
         </is>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
@@ -17691,14 +17691,14 @@
     <row r="294" ht="15" customHeight="1">
       <c r="A294" t="inlineStr">
         <is>
-          <t>A 45834-2023</t>
+          <t>A 45060-2021</t>
         </is>
       </c>
       <c r="B294" s="1" t="n">
-        <v>45195.56408564815</v>
+        <v>44439</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17711,7 +17711,7 @@
         </is>
       </c>
       <c r="G294" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
@@ -17748,14 +17748,14 @@
     <row r="295" ht="15" customHeight="1">
       <c r="A295" t="inlineStr">
         <is>
-          <t>A 52269-2022</t>
+          <t>A 19545-2024</t>
         </is>
       </c>
       <c r="B295" s="1" t="n">
-        <v>44873</v>
+        <v>45429</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17768,7 +17768,7 @@
         </is>
       </c>
       <c r="G295" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -17805,14 +17805,14 @@
     <row r="296" ht="15" customHeight="1">
       <c r="A296" t="inlineStr">
         <is>
-          <t>A 18849-2021</t>
+          <t>A 50441-2023</t>
         </is>
       </c>
       <c r="B296" s="1" t="n">
-        <v>44307</v>
+        <v>45216.708125</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -17825,7 +17825,7 @@
         </is>
       </c>
       <c r="G296" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -17862,14 +17862,14 @@
     <row r="297" ht="15" customHeight="1">
       <c r="A297" t="inlineStr">
         <is>
-          <t>A 15323-2024</t>
+          <t>A 10401-2024</t>
         </is>
       </c>
       <c r="B297" s="1" t="n">
-        <v>45400.66951388889</v>
+        <v>45365.68392361111</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -17882,7 +17882,7 @@
         </is>
       </c>
       <c r="G297" t="n">
-        <v>10.6</v>
+        <v>7.6</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -17919,14 +17919,14 @@
     <row r="298" ht="15" customHeight="1">
       <c r="A298" t="inlineStr">
         <is>
-          <t>A 17160-2024</t>
+          <t>A 16745-2023</t>
         </is>
       </c>
       <c r="B298" s="1" t="n">
-        <v>45412.71053240741</v>
+        <v>45030.83834490741</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -17939,7 +17939,7 @@
         </is>
       </c>
       <c r="G298" t="n">
-        <v>3.5</v>
+        <v>1.9</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -17976,14 +17976,14 @@
     <row r="299" ht="15" customHeight="1">
       <c r="A299" t="inlineStr">
         <is>
-          <t>A 19545-2024</t>
+          <t>A 16746-2023</t>
         </is>
       </c>
       <c r="B299" s="1" t="n">
-        <v>45429</v>
+        <v>45030.84126157407</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="G299" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -18033,14 +18033,14 @@
     <row r="300" ht="15" customHeight="1">
       <c r="A300" t="inlineStr">
         <is>
-          <t>A 52128-2021</t>
+          <t>A 509-2025</t>
         </is>
       </c>
       <c r="B300" s="1" t="n">
-        <v>44463</v>
+        <v>45664.47153935185</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18053,7 +18053,7 @@
         </is>
       </c>
       <c r="G300" t="n">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -18090,14 +18090,14 @@
     <row r="301" ht="15" customHeight="1">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A 46917-2022</t>
+          <t>A 20850-2025</t>
         </is>
       </c>
       <c r="B301" s="1" t="n">
-        <v>44851.67258101852</v>
+        <v>45777.32079861111</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18110,7 +18110,7 @@
         </is>
       </c>
       <c r="G301" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -18147,14 +18147,14 @@
     <row r="302" ht="15" customHeight="1">
       <c r="A302" t="inlineStr">
         <is>
-          <t>A 35709-2021</t>
+          <t>A 21689-2025</t>
         </is>
       </c>
       <c r="B302" s="1" t="n">
-        <v>44386.50672453704</v>
+        <v>45783.49379629629</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18167,7 +18167,7 @@
         </is>
       </c>
       <c r="G302" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -18204,14 +18204,14 @@
     <row r="303" ht="15" customHeight="1">
       <c r="A303" t="inlineStr">
         <is>
-          <t>A 60996-2022</t>
+          <t>A 21678-2025</t>
         </is>
       </c>
       <c r="B303" s="1" t="n">
-        <v>44914</v>
+        <v>45783.48696759259</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18224,7 +18224,7 @@
         </is>
       </c>
       <c r="G303" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -18261,14 +18261,14 @@
     <row r="304" ht="15" customHeight="1">
       <c r="A304" t="inlineStr">
         <is>
-          <t>A 12157-2022</t>
+          <t>A 21698-2025</t>
         </is>
       </c>
       <c r="B304" s="1" t="n">
-        <v>44636</v>
+        <v>45783.51045138889</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18281,7 +18281,7 @@
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2.7</v>
+        <v>0.5</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -18318,14 +18318,14 @@
     <row r="305" ht="15" customHeight="1">
       <c r="A305" t="inlineStr">
         <is>
-          <t>A 9456-2024</t>
+          <t>A 13313-2024</t>
         </is>
       </c>
       <c r="B305" s="1" t="n">
-        <v>45359.5290625</v>
+        <v>45386.73177083334</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18338,7 +18338,7 @@
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -18375,14 +18375,14 @@
     <row r="306" ht="15" customHeight="1">
       <c r="A306" t="inlineStr">
         <is>
-          <t>A 53270-2024</t>
+          <t>A 27342-2024</t>
         </is>
       </c>
       <c r="B306" s="1" t="n">
-        <v>45614.36040509259</v>
+        <v>45473.34694444444</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18395,7 +18395,7 @@
         </is>
       </c>
       <c r="G306" t="n">
-        <v>0.9</v>
+        <v>2.4</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -18432,14 +18432,14 @@
     <row r="307" ht="15" customHeight="1">
       <c r="A307" t="inlineStr">
         <is>
-          <t>A 5647-2023</t>
+          <t>A 10100-2025</t>
         </is>
       </c>
       <c r="B307" s="1" t="n">
-        <v>44960.6078125</v>
+        <v>45719.57890046296</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18452,7 +18452,7 @@
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -18489,14 +18489,14 @@
     <row r="308" ht="15" customHeight="1">
       <c r="A308" t="inlineStr">
         <is>
-          <t>A 7443-2023</t>
+          <t>A 8667-2025</t>
         </is>
       </c>
       <c r="B308" s="1" t="n">
-        <v>44971</v>
+        <v>45712.41157407407</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18509,7 +18509,7 @@
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -18546,14 +18546,14 @@
     <row r="309" ht="15" customHeight="1">
       <c r="A309" t="inlineStr">
         <is>
-          <t>A 1886-2023</t>
+          <t>A 13079-2025</t>
         </is>
       </c>
       <c r="B309" s="1" t="n">
-        <v>44939.33954861111</v>
+        <v>45734.62342592593</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18566,7 +18566,7 @@
         </is>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -18603,14 +18603,14 @@
     <row r="310" ht="15" customHeight="1">
       <c r="A310" t="inlineStr">
         <is>
-          <t>A 7157-2024</t>
+          <t>A 10357-2025</t>
         </is>
       </c>
       <c r="B310" s="1" t="n">
-        <v>45344</v>
+        <v>45720.53015046296</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18623,7 +18623,7 @@
         </is>
       </c>
       <c r="G310" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -18660,14 +18660,14 @@
     <row r="311" ht="15" customHeight="1">
       <c r="A311" t="inlineStr">
         <is>
-          <t>A 9374-2023</t>
+          <t>A 10358-2025</t>
         </is>
       </c>
       <c r="B311" s="1" t="n">
-        <v>44981.35020833334</v>
+        <v>45720.53283564815</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18680,7 +18680,7 @@
         </is>
       </c>
       <c r="G311" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -18717,14 +18717,14 @@
     <row r="312" ht="15" customHeight="1">
       <c r="A312" t="inlineStr">
         <is>
-          <t>A 48256-2022</t>
+          <t>A 60993-2022</t>
         </is>
       </c>
       <c r="B312" s="1" t="n">
-        <v>44858.47505787037</v>
+        <v>44914</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18737,7 +18737,7 @@
         </is>
       </c>
       <c r="G312" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -18774,14 +18774,14 @@
     <row r="313" ht="15" customHeight="1">
       <c r="A313" t="inlineStr">
         <is>
-          <t>A 23238-2024</t>
+          <t>A 10097-2025</t>
         </is>
       </c>
       <c r="B313" s="1" t="n">
-        <v>45453.33143518519</v>
+        <v>45719.57722222222</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         </is>
       </c>
       <c r="G313" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -18831,14 +18831,14 @@
     <row r="314" ht="15" customHeight="1">
       <c r="A314" t="inlineStr">
         <is>
-          <t>A 7154-2024</t>
+          <t>A 11213-2025</t>
         </is>
       </c>
       <c r="B314" s="1" t="n">
-        <v>45344</v>
+        <v>45726.33466435185</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         </is>
       </c>
       <c r="G314" t="n">
-        <v>0.9</v>
+        <v>4.8</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -18888,14 +18888,14 @@
     <row r="315" ht="15" customHeight="1">
       <c r="A315" t="inlineStr">
         <is>
-          <t>A 24978-2022</t>
+          <t>A 22890-2025</t>
         </is>
       </c>
       <c r="B315" s="1" t="n">
-        <v>44728</v>
+        <v>45790.39219907407</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         </is>
       </c>
       <c r="G315" t="n">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -18945,14 +18945,14 @@
     <row r="316" ht="15" customHeight="1">
       <c r="A316" t="inlineStr">
         <is>
-          <t>A 18440-2025</t>
+          <t>A 8870-2025</t>
         </is>
       </c>
       <c r="B316" s="1" t="n">
-        <v>45762.65361111111</v>
+        <v>45713.37015046296</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         </is>
       </c>
       <c r="G316" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -19002,14 +19002,14 @@
     <row r="317" ht="15" customHeight="1">
       <c r="A317" t="inlineStr">
         <is>
-          <t>A 59865-2024</t>
+          <t>A 10182-2025</t>
         </is>
       </c>
       <c r="B317" s="1" t="n">
-        <v>45639.84203703704</v>
+        <v>45719.68414351852</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D317" t="inlineStr">
 